--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_0_17.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_0_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>341597.9657649415</v>
+        <v>341161.6500904952</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>218615.8834996861</v>
+        <v>218615.8834996849</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>504792.0292736556</v>
+        <v>504792.0292736554</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F2" t="n">
         <v>10.00967878293136</v>
       </c>
       <c r="G2" t="n">
-        <v>411.9429466803539</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="H2" t="n">
-        <v>329.4930616586638</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>171.0890268032919</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>49.48351003922295</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -713,7 +713,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>252.3364829231459</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>333.6094813630181</v>
@@ -722,7 +722,7 @@
         <v>358.909580840975</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>52.36538948148506</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>157.8252483534483</v>
+        <v>70.60232110148306</v>
       </c>
       <c r="C3" t="n">
         <v>160.0866360314548</v>
@@ -744,10 +744,10 @@
         <v>137.45025063969</v>
       </c>
       <c r="E3" t="n">
-        <v>145.5577298436975</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>127.4412149769483</v>
@@ -789,10 +789,10 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U3" t="n">
-        <v>36.98058010805818</v>
+        <v>216.3098444776729</v>
       </c>
       <c r="V3" t="n">
         <v>226.1116663261494</v>
@@ -829,16 +829,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.2305511458285</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>157.7789187685189</v>
       </c>
       <c r="I4" t="n">
-        <v>142.7610139533483</v>
+        <v>142.2725166791566</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>164.1628316204792</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>219.8148072196457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,13 +893,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>171.0890268032919</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,10 +941,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>222.1153568062989</v>
@@ -953,16 +953,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>378.2098390737216</v>
+        <v>145.8860996236922</v>
       </c>
       <c r="Y5" t="n">
-        <v>155.8992694859572</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="6">
@@ -981,7 +981,7 @@
         <v>137.45025063969</v>
       </c>
       <c r="E6" t="n">
-        <v>145.5577298436975</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>133.3468600696244</v>
@@ -990,10 +990,10 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I6" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,16 +1020,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T6" t="n">
-        <v>47.05042948610259</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U6" t="n">
-        <v>216.3098444776729</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>226.1116663261494</v>
@@ -1038,7 +1038,7 @@
         <v>238.9027100790231</v>
       </c>
       <c r="X6" t="n">
-        <v>195.9378182409833</v>
+        <v>176.3596344974634</v>
       </c>
       <c r="Y6" t="n">
         <v>190.5961130869169</v>
@@ -1057,7 +1057,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>128.590085938789</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1069,10 +1069,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>157.7789187685189</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J7" t="n">
         <v>59.456666199969</v>
@@ -1099,10 +1099,10 @@
         <v>38.15196793284785</v>
       </c>
       <c r="R7" t="n">
-        <v>148.0265635717656</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>211.5726649703493</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1111,7 +1111,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>69.53079011854133</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1136,22 +1136,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F8" t="n">
-        <v>10.00967878293136</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G8" t="n">
-        <v>411.9429466803539</v>
+        <v>307.9308644526045</v>
       </c>
       <c r="H8" t="n">
-        <v>245.6458586531766</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I8" t="n">
-        <v>171.0890268032919</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,10 +1178,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>222.1153568062989</v>
@@ -1190,13 +1190,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>157.8252483534483</v>
       </c>
       <c r="C9" t="n">
-        <v>160.0866360314548</v>
+        <v>77.47366505899355</v>
       </c>
       <c r="D9" t="n">
         <v>137.45025063969</v>
@@ -1221,7 +1221,7 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F9" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>127.4412149769483</v>
@@ -1263,16 +1263,16 @@
         <v>151.2714921173871</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U9" t="n">
         <v>216.3098444776729</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W9" t="n">
-        <v>196.9500880797384</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>195.9378182409833</v>
@@ -1291,16 +1291,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>14.29603983221421</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>151.5411742405149</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1309,10 +1309,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J10" t="n">
-        <v>59.456666199969</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1342,13 +1342,13 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>230.8471636524779</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>114.978507254799</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1370,25 +1370,25 @@
         <v>298.208646707806</v>
       </c>
       <c r="C11" t="n">
-        <v>286.2199636654877</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>37.92225021953067</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>298.9434052799213</v>
+        <v>298.9434052799212</v>
       </c>
       <c r="F11" t="n">
         <v>318.1152213678984</v>
       </c>
       <c r="G11" t="n">
-        <v>320.0484892653209</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>237.5986042436309</v>
+        <v>231.2323365652785</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>79.19456938825897</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>93.46222820091663</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>130.220899391266</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>160.4420255081129</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>241.7150239479851</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>267.015123425942</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>286.3153816586886</v>
       </c>
       <c r="Y11" t="n">
-        <v>297.7119794548874</v>
+        <v>297.7119794548873</v>
       </c>
     </row>
     <row r="12">
@@ -1452,7 +1452,7 @@
         <v>160.0866360314548</v>
       </c>
       <c r="D12" t="n">
-        <v>122.8847593541863</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E12" t="n">
         <v>145.5577298436975</v>
@@ -1512,7 +1512,7 @@
         <v>238.9027100790231</v>
       </c>
       <c r="X12" t="n">
-        <v>195.9378182409833</v>
+        <v>181.3723269554795</v>
       </c>
       <c r="Y12" t="n">
         <v>190.5961130869169</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>89.82535758250307</v>
+        <v>89.82535758250305</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>76.02535242790353</v>
       </c>
       <c r="D13" t="n">
-        <v>59.64671682548195</v>
+        <v>59.64671682548192</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>58.59446668126137</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>59.06139100944768</v>
       </c>
       <c r="G13" t="n">
-        <v>75.33609373079554</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>65.88446135348593</v>
       </c>
       <c r="I13" t="n">
-        <v>50.86655653831531</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>56.13210615673262</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>119.6782075553164</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>138.952706237445</v>
       </c>
       <c r="U13" t="n">
-        <v>192.4238797007582</v>
+        <v>192.4238797007581</v>
       </c>
       <c r="V13" t="n">
-        <v>166.2334939821287</v>
+        <v>166.2334939821286</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>191.4003800527419</v>
       </c>
       <c r="X13" t="n">
-        <v>74.58302406559937</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>127.9203498046127</v>
+        <v>53.55028632653261</v>
       </c>
     </row>
     <row r="14">
@@ -1610,22 +1610,22 @@
         <v>286.2199636654877</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>277.2012677100157</v>
       </c>
       <c r="E14" t="n">
         <v>298.9434052799213</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>318.1152213678985</v>
       </c>
       <c r="G14" t="n">
-        <v>320.0484892653209</v>
+        <v>320.048489265321</v>
       </c>
       <c r="H14" t="n">
-        <v>237.5986042436309</v>
+        <v>222.0027143453286</v>
       </c>
       <c r="I14" t="n">
-        <v>79.194569388259</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1658,22 +1658,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>130.220899391266</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>160.442025508113</v>
       </c>
       <c r="V14" t="n">
-        <v>241.7150239479851</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>267.015123425942</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>286.3153816586886</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>33.41360633047158</v>
+        <v>297.7119794548875</v>
       </c>
     </row>
     <row r="15">
@@ -1695,7 +1695,7 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F15" t="n">
-        <v>133.3468600696244</v>
+        <v>118.7813687841211</v>
       </c>
       <c r="G15" t="n">
         <v>127.4412149769483</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>44.62093493050052</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S15" t="n">
         <v>151.2714921173871</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>89.8253575825031</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>76.02535242790358</v>
       </c>
       <c r="D16" t="n">
-        <v>59.64671682548195</v>
+        <v>59.64671682548197</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>58.59446668126142</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>59.06139100944773</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>75.33609373079557</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>65.88446135348599</v>
       </c>
       <c r="I16" t="n">
-        <v>18.29727597265996</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>56.13210615673265</v>
       </c>
       <c r="S16" t="n">
-        <v>119.6782075553164</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>138.952706237445</v>
+        <v>116.4131903286617</v>
       </c>
       <c r="U16" t="n">
-        <v>192.4238797007582</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>166.2334939821287</v>
       </c>
       <c r="W16" t="n">
-        <v>191.4003800527419</v>
+        <v>191.400380052742</v>
       </c>
       <c r="X16" t="n">
-        <v>137.045482048545</v>
+        <v>137.0454820485451</v>
       </c>
       <c r="Y16" t="n">
-        <v>127.9203498046127</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1920,7 +1920,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>157.8252483534483</v>
+        <v>143.2597570679445</v>
       </c>
       <c r="C18" t="n">
         <v>160.0866360314548</v>
@@ -1935,7 +1935,7 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G18" t="n">
-        <v>112.8757236914445</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H18" t="n">
         <v>98.93847887876893</v>
@@ -2205,13 +2205,13 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>44.62093493050007</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S21" t="n">
         <v>151.2714921173871</v>
       </c>
       <c r="T21" t="n">
-        <v>186.7982527956746</v>
+        <v>172.2327615101707</v>
       </c>
       <c r="U21" t="n">
         <v>216.3098444776729</v>
@@ -2415,7 +2415,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I24" t="n">
-        <v>53.1329711713359</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2451,7 +2451,7 @@
         <v>186.7982527956746</v>
       </c>
       <c r="U24" t="n">
-        <v>216.3098444776729</v>
+        <v>201.7443531921687</v>
       </c>
       <c r="V24" t="n">
         <v>226.1116663261494</v>
@@ -2552,28 +2552,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>261.4420352612605</v>
+        <v>261.4420352612603</v>
       </c>
       <c r="C26" t="n">
-        <v>249.4533522189422</v>
+        <v>249.4533522189421</v>
       </c>
       <c r="D26" t="n">
-        <v>240.4346562634702</v>
+        <v>240.4346562634701</v>
       </c>
       <c r="E26" t="n">
-        <v>262.1767938333758</v>
+        <v>262.1767938333756</v>
       </c>
       <c r="F26" t="n">
-        <v>281.3486099213529</v>
+        <v>281.3486099213528</v>
       </c>
       <c r="G26" t="n">
-        <v>283.2818778187755</v>
+        <v>283.2818778187753</v>
       </c>
       <c r="H26" t="n">
-        <v>200.8319927970853</v>
+        <v>200.8319927970852</v>
       </c>
       <c r="I26" t="n">
-        <v>42.42795794171349</v>
+        <v>42.42795794171334</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>56.69561675437112</v>
+        <v>56.69561675437097</v>
       </c>
       <c r="T26" t="n">
-        <v>93.45428794472048</v>
+        <v>93.45428794472033</v>
       </c>
       <c r="U26" t="n">
-        <v>123.6754140615674</v>
+        <v>123.6754140615673</v>
       </c>
       <c r="V26" t="n">
-        <v>204.9484125014396</v>
+        <v>204.9484125014395</v>
       </c>
       <c r="W26" t="n">
-        <v>230.2485119793965</v>
+        <v>230.2485119793964</v>
       </c>
       <c r="X26" t="n">
-        <v>249.5487702121431</v>
+        <v>249.548770212143</v>
       </c>
       <c r="Y26" t="n">
-        <v>260.9453680083419</v>
+        <v>260.9453680083417</v>
       </c>
     </row>
     <row r="27">
@@ -2646,7 +2646,7 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G27" t="n">
-        <v>127.4412149769483</v>
+        <v>112.8757236914449</v>
       </c>
       <c r="H27" t="n">
         <v>98.93847887876893</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>44.62093493050052</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S27" t="n">
         <v>151.2714921173871</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>53.05874613595756</v>
+        <v>53.05874613595742</v>
       </c>
       <c r="C28" t="n">
-        <v>39.25874098135805</v>
+        <v>39.2587409813579</v>
       </c>
       <c r="D28" t="n">
-        <v>22.88010537893643</v>
+        <v>22.88010537893629</v>
       </c>
       <c r="E28" t="n">
-        <v>21.82785523471588</v>
+        <v>21.82785523471574</v>
       </c>
       <c r="F28" t="n">
-        <v>22.29477956290219</v>
+        <v>22.29477956290205</v>
       </c>
       <c r="G28" t="n">
-        <v>38.56948228425003</v>
+        <v>38.56948228424989</v>
       </c>
       <c r="H28" t="n">
-        <v>29.11784990694045</v>
+        <v>29.11784990694031</v>
       </c>
       <c r="I28" t="n">
-        <v>14.0999450917698</v>
+        <v>14.09994509176965</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>19.36549471018711</v>
+        <v>19.36549471018697</v>
       </c>
       <c r="S28" t="n">
-        <v>82.91159610877085</v>
+        <v>82.91159610877071</v>
       </c>
       <c r="T28" t="n">
-        <v>102.1860947908995</v>
+        <v>102.1860947908993</v>
       </c>
       <c r="U28" t="n">
-        <v>155.6572682542127</v>
+        <v>155.6572682542125</v>
       </c>
       <c r="V28" t="n">
-        <v>129.4668825355832</v>
+        <v>129.466882535583</v>
       </c>
       <c r="W28" t="n">
-        <v>154.6337686061964</v>
+        <v>154.6337686061963</v>
       </c>
       <c r="X28" t="n">
-        <v>100.2788706019995</v>
+        <v>100.2788706019994</v>
       </c>
       <c r="Y28" t="n">
-        <v>91.15373835806722</v>
+        <v>91.15373835806707</v>
       </c>
     </row>
     <row r="29">
@@ -2789,28 +2789,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>261.4420352612605</v>
+        <v>261.4420352612603</v>
       </c>
       <c r="C29" t="n">
-        <v>249.4533522189422</v>
+        <v>249.453352218942</v>
       </c>
       <c r="D29" t="n">
-        <v>240.4346562634702</v>
+        <v>240.43465626347</v>
       </c>
       <c r="E29" t="n">
-        <v>262.1767938333758</v>
+        <v>262.1767938333755</v>
       </c>
       <c r="F29" t="n">
-        <v>281.3486099213529</v>
+        <v>281.3486099213527</v>
       </c>
       <c r="G29" t="n">
-        <v>283.2818778187755</v>
+        <v>283.2818778187752</v>
       </c>
       <c r="H29" t="n">
-        <v>200.8319927970853</v>
+        <v>200.8319927970851</v>
       </c>
       <c r="I29" t="n">
-        <v>42.42795794171349</v>
+        <v>42.42795794171329</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>56.69561675437112</v>
+        <v>56.69561675437092</v>
       </c>
       <c r="T29" t="n">
-        <v>93.45428794472048</v>
+        <v>93.45428794472028</v>
       </c>
       <c r="U29" t="n">
-        <v>123.6754140615674</v>
+        <v>123.6754140615672</v>
       </c>
       <c r="V29" t="n">
-        <v>204.9484125014393</v>
+        <v>204.9484125014394</v>
       </c>
       <c r="W29" t="n">
-        <v>230.2485119793965</v>
+        <v>230.2485119793963</v>
       </c>
       <c r="X29" t="n">
-        <v>249.5487702121431</v>
+        <v>249.5487702121429</v>
       </c>
       <c r="Y29" t="n">
-        <v>260.9453680083419</v>
+        <v>260.9453680083417</v>
       </c>
     </row>
     <row r="30">
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>44.62093493050052</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S30" t="n">
         <v>151.2714921173871</v>
@@ -2925,7 +2925,7 @@
         <v>186.7982527956746</v>
       </c>
       <c r="U30" t="n">
-        <v>216.3098444776729</v>
+        <v>201.7443531921696</v>
       </c>
       <c r="V30" t="n">
         <v>226.1116663261494</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>53.05874613595756</v>
+        <v>53.05874613595736</v>
       </c>
       <c r="C31" t="n">
-        <v>39.25874098135805</v>
+        <v>39.25874098135785</v>
       </c>
       <c r="D31" t="n">
-        <v>22.88010537893643</v>
+        <v>22.88010537893624</v>
       </c>
       <c r="E31" t="n">
-        <v>21.82785523471588</v>
+        <v>21.82785523471568</v>
       </c>
       <c r="F31" t="n">
-        <v>22.29477956290219</v>
+        <v>22.29477956290199</v>
       </c>
       <c r="G31" t="n">
-        <v>38.56948228425003</v>
+        <v>38.56948228424983</v>
       </c>
       <c r="H31" t="n">
-        <v>29.11784990694045</v>
+        <v>29.11784990694025</v>
       </c>
       <c r="I31" t="n">
-        <v>14.0999450917698</v>
+        <v>14.0999450917696</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>19.36549471018711</v>
+        <v>19.36549471018691</v>
       </c>
       <c r="S31" t="n">
-        <v>82.91159610877085</v>
+        <v>82.91159610877065</v>
       </c>
       <c r="T31" t="n">
-        <v>102.1860947908995</v>
+        <v>102.1860947908993</v>
       </c>
       <c r="U31" t="n">
-        <v>155.6572682542127</v>
+        <v>155.6572682542125</v>
       </c>
       <c r="V31" t="n">
-        <v>129.4668825355832</v>
+        <v>129.466882535583</v>
       </c>
       <c r="W31" t="n">
-        <v>154.6337686061964</v>
+        <v>154.6337686061962</v>
       </c>
       <c r="X31" t="n">
-        <v>100.2788706019995</v>
+        <v>100.2788706019993</v>
       </c>
       <c r="Y31" t="n">
-        <v>91.15373835806722</v>
+        <v>91.15373835806702</v>
       </c>
     </row>
     <row r="32">
@@ -3026,19 +3026,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>253.327175636089</v>
+        <v>253.3271756360891</v>
       </c>
       <c r="C32" t="n">
         <v>241.3384925937708</v>
       </c>
       <c r="D32" t="n">
-        <v>232.3197966382987</v>
+        <v>232.3197966382988</v>
       </c>
       <c r="E32" t="n">
         <v>254.0619342082043</v>
       </c>
       <c r="F32" t="n">
-        <v>273.2337502961814</v>
+        <v>273.2337502961815</v>
       </c>
       <c r="G32" t="n">
         <v>275.167018193604</v>
@@ -3047,7 +3047,7 @@
         <v>192.7171331719139</v>
       </c>
       <c r="I32" t="n">
-        <v>34.31309831654201</v>
+        <v>34.31309831654207</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>48.58075712919964</v>
+        <v>48.5807571291997</v>
       </c>
       <c r="T32" t="n">
-        <v>85.339428319549</v>
+        <v>85.33942831954906</v>
       </c>
       <c r="U32" t="n">
         <v>115.560554436396</v>
       </c>
       <c r="V32" t="n">
-        <v>196.8335528762681</v>
+        <v>196.8335528762682</v>
       </c>
       <c r="W32" t="n">
-        <v>222.133652354225</v>
+        <v>222.1336523542251</v>
       </c>
       <c r="X32" t="n">
-        <v>241.4339105869716</v>
+        <v>241.4339105869717</v>
       </c>
       <c r="Y32" t="n">
-        <v>252.8305083831704</v>
+        <v>252.8305083831705</v>
       </c>
     </row>
     <row r="33">
@@ -3153,10 +3153,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>44.62093493050052</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S33" t="n">
-        <v>151.2714921173871</v>
+        <v>136.7060008318836</v>
       </c>
       <c r="T33" t="n">
         <v>186.7982527956746</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>44.94388651078609</v>
+        <v>44.94388651078614</v>
       </c>
       <c r="C34" t="n">
-        <v>31.14388135618657</v>
+        <v>31.14388135618663</v>
       </c>
       <c r="D34" t="n">
-        <v>14.76524575376496</v>
+        <v>14.76524575376502</v>
       </c>
       <c r="E34" t="n">
-        <v>13.71299560954441</v>
+        <v>13.71299560954446</v>
       </c>
       <c r="F34" t="n">
-        <v>14.17991993773072</v>
+        <v>14.17991993773077</v>
       </c>
       <c r="G34" t="n">
-        <v>30.45462265907855</v>
+        <v>30.45462265907861</v>
       </c>
       <c r="H34" t="n">
-        <v>21.00299028176897</v>
+        <v>21.00299028176903</v>
       </c>
       <c r="I34" t="n">
-        <v>5.985085466598321</v>
+        <v>5.985085466598377</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>11.25063508501563</v>
+        <v>11.25063508501569</v>
       </c>
       <c r="S34" t="n">
-        <v>74.79673648359937</v>
+        <v>74.79673648359943</v>
       </c>
       <c r="T34" t="n">
-        <v>94.07123516572801</v>
+        <v>94.07123516572807</v>
       </c>
       <c r="U34" t="n">
         <v>147.5424086290412</v>
@@ -3247,13 +3247,13 @@
         <v>121.3520229104117</v>
       </c>
       <c r="W34" t="n">
-        <v>146.5189089810249</v>
+        <v>146.518908981025</v>
       </c>
       <c r="X34" t="n">
-        <v>92.16401097682805</v>
+        <v>92.16401097682811</v>
       </c>
       <c r="Y34" t="n">
-        <v>83.03887873289574</v>
+        <v>83.0388787328958</v>
       </c>
     </row>
     <row r="35">
@@ -3348,7 +3348,7 @@
         <v>160.0866360314548</v>
       </c>
       <c r="D36" t="n">
-        <v>137.45025063969</v>
+        <v>122.8847593541868</v>
       </c>
       <c r="E36" t="n">
         <v>145.5577298436975</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>44.62093493050052</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S36" t="n">
         <v>151.2714921173871</v>
@@ -3594,7 +3594,7 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G39" t="n">
-        <v>127.4412149769483</v>
+        <v>112.875723691445</v>
       </c>
       <c r="H39" t="n">
         <v>98.93847887876893</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>44.62093493050052</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S39" t="n">
         <v>151.2714921173871</v>
@@ -3740,25 +3740,25 @@
         <v>223.974038980382</v>
       </c>
       <c r="C41" t="n">
-        <v>211.9853559380638</v>
+        <v>211.9853559380637</v>
       </c>
       <c r="D41" t="n">
-        <v>202.9666599825918</v>
+        <v>202.9666599825917</v>
       </c>
       <c r="E41" t="n">
         <v>224.7087975524973</v>
       </c>
       <c r="F41" t="n">
-        <v>243.8806136404745</v>
+        <v>243.8806136404744</v>
       </c>
       <c r="G41" t="n">
-        <v>245.813881537897</v>
+        <v>245.8138815378969</v>
       </c>
       <c r="H41" t="n">
         <v>163.3639965162069</v>
       </c>
       <c r="I41" t="n">
-        <v>4.959961660835035</v>
+        <v>4.959961660835006</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,22 +3788,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>19.22762047349266</v>
+        <v>19.22762047349264</v>
       </c>
       <c r="T41" t="n">
-        <v>55.98629166384202</v>
+        <v>55.986291663842</v>
       </c>
       <c r="U41" t="n">
-        <v>86.20741778068898</v>
+        <v>86.20741778068896</v>
       </c>
       <c r="V41" t="n">
-        <v>167.4804162205612</v>
+        <v>167.4804162205611</v>
       </c>
       <c r="W41" t="n">
-        <v>192.7805156985181</v>
+        <v>192.780515698518</v>
       </c>
       <c r="X41" t="n">
-        <v>212.0807739312647</v>
+        <v>212.0807739312646</v>
       </c>
       <c r="Y41" t="n">
         <v>223.4773717274634</v>
@@ -3831,7 +3831,7 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G42" t="n">
-        <v>127.4412149769483</v>
+        <v>112.875723691445</v>
       </c>
       <c r="H42" t="n">
         <v>98.93847887876893</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>44.62093493050052</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S42" t="n">
         <v>151.2714921173871</v>
@@ -3895,10 +3895,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>15.59074985507911</v>
+        <v>15.59074985507908</v>
       </c>
       <c r="C43" t="n">
-        <v>1.790744700479593</v>
+        <v>1.790744700479564</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3910,7 +3910,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.101486003371576</v>
+        <v>1.101486003371548</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>45.4435998278924</v>
+        <v>45.44359982789237</v>
       </c>
       <c r="T43" t="n">
-        <v>64.71809851002104</v>
+        <v>64.71809851002101</v>
       </c>
       <c r="U43" t="n">
         <v>118.1892719733342</v>
       </c>
       <c r="V43" t="n">
-        <v>91.9988862547047</v>
+        <v>91.99888625470467</v>
       </c>
       <c r="W43" t="n">
-        <v>117.165772325318</v>
+        <v>117.1657723253179</v>
       </c>
       <c r="X43" t="n">
-        <v>62.81087432112108</v>
+        <v>62.81087432112105</v>
       </c>
       <c r="Y43" t="n">
-        <v>53.68574207718876</v>
+        <v>53.68574207718873</v>
       </c>
     </row>
     <row r="44">
@@ -3977,25 +3977,25 @@
         <v>223.974038980382</v>
       </c>
       <c r="C44" t="n">
-        <v>211.9853559380638</v>
+        <v>211.9853559380637</v>
       </c>
       <c r="D44" t="n">
-        <v>202.9666599825918</v>
+        <v>202.9666599825915</v>
       </c>
       <c r="E44" t="n">
         <v>224.7087975524973</v>
       </c>
       <c r="F44" t="n">
-        <v>243.8806136404745</v>
+        <v>243.8806136404744</v>
       </c>
       <c r="G44" t="n">
-        <v>245.813881537897</v>
+        <v>245.8138815378969</v>
       </c>
       <c r="H44" t="n">
         <v>163.3639965162069</v>
       </c>
       <c r="I44" t="n">
-        <v>4.959961660835035</v>
+        <v>4.959961660835006</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,22 +4025,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>19.22762047349266</v>
+        <v>19.22762047349264</v>
       </c>
       <c r="T44" t="n">
-        <v>55.98629166384202</v>
+        <v>55.986291663842</v>
       </c>
       <c r="U44" t="n">
-        <v>86.20741778068898</v>
+        <v>86.20741778068896</v>
       </c>
       <c r="V44" t="n">
-        <v>167.4804162205612</v>
+        <v>167.4804162205611</v>
       </c>
       <c r="W44" t="n">
-        <v>192.7805156985181</v>
+        <v>192.780515698518</v>
       </c>
       <c r="X44" t="n">
-        <v>212.0807739312647</v>
+        <v>212.0807739312646</v>
       </c>
       <c r="Y44" t="n">
         <v>223.4773717274634</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>44.62093493050007</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S45" t="n">
         <v>151.2714921173871</v>
@@ -4113,7 +4113,7 @@
         <v>216.3098444776729</v>
       </c>
       <c r="V45" t="n">
-        <v>226.1116663261494</v>
+        <v>211.5461750406456</v>
       </c>
       <c r="W45" t="n">
         <v>238.9027100790231</v>
@@ -4132,10 +4132,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>15.59074985507911</v>
+        <v>15.59074985507908</v>
       </c>
       <c r="C46" t="n">
-        <v>1.790744700479593</v>
+        <v>1.790744700479564</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4147,7 +4147,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.101486003371576</v>
+        <v>1.101486003371548</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>45.4435998278924</v>
+        <v>45.44359982789237</v>
       </c>
       <c r="T46" t="n">
-        <v>64.71809851002104</v>
+        <v>64.71809851002101</v>
       </c>
       <c r="U46" t="n">
         <v>118.1892719733342</v>
       </c>
       <c r="V46" t="n">
-        <v>91.9988862547047</v>
+        <v>91.99888625470467</v>
       </c>
       <c r="W46" t="n">
-        <v>117.165772325318</v>
+        <v>117.1657723253179</v>
       </c>
       <c r="X46" t="n">
-        <v>62.81087432112108</v>
+        <v>62.81087432112105</v>
       </c>
       <c r="Y46" t="n">
-        <v>53.68574207718876</v>
+        <v>53.68574207718873</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>971.3682694584295</v>
+        <v>829.2990768908003</v>
       </c>
       <c r="C2" t="n">
-        <v>971.3682694584295</v>
+        <v>829.2990768908003</v>
       </c>
       <c r="D2" t="n">
-        <v>971.3682694584295</v>
+        <v>456.4751121180239</v>
       </c>
       <c r="E2" t="n">
-        <v>971.3682694584295</v>
+        <v>61.68939222413074</v>
       </c>
       <c r="F2" t="n">
-        <v>961.2574828090039</v>
+        <v>51.57860557470512</v>
       </c>
       <c r="G2" t="n">
-        <v>545.1534962631919</v>
+        <v>39.51502306929716</v>
       </c>
       <c r="H2" t="n">
-        <v>212.3322218605011</v>
+        <v>39.51502306929716</v>
       </c>
       <c r="I2" t="n">
-        <v>39.51502306929711</v>
+        <v>39.51502306929716</v>
       </c>
       <c r="J2" t="n">
-        <v>39.51502306929711</v>
+        <v>39.51502306929716</v>
       </c>
       <c r="K2" t="n">
-        <v>228.7015208236816</v>
+        <v>279.6553951140799</v>
       </c>
       <c r="L2" t="n">
-        <v>576.5868939086279</v>
+        <v>627.5407681990262</v>
       </c>
       <c r="M2" t="n">
-        <v>969.8260601617158</v>
+        <v>1020.779934452114</v>
       </c>
       <c r="N2" t="n">
-        <v>1348.157418849431</v>
+        <v>1399.11129313983</v>
       </c>
       <c r="O2" t="n">
-        <v>1653.162003322265</v>
+        <v>1704.115877612664</v>
       </c>
       <c r="P2" t="n">
-        <v>1881.318899778319</v>
+        <v>1881.318899778321</v>
       </c>
       <c r="Q2" t="n">
-        <v>1975.751153464856</v>
+        <v>1975.751153464858</v>
       </c>
       <c r="R2" t="n">
-        <v>1925.767809990893</v>
+        <v>1975.751153464858</v>
       </c>
       <c r="S2" t="n">
-        <v>1925.767809990893</v>
+        <v>1975.751153464858</v>
       </c>
       <c r="T2" t="n">
-        <v>1925.767809990893</v>
+        <v>1975.751153464858</v>
       </c>
       <c r="U2" t="n">
-        <v>1670.882473704887</v>
+        <v>1975.751153464858</v>
       </c>
       <c r="V2" t="n">
-        <v>1333.903199600828</v>
+        <v>1638.771879360799</v>
       </c>
       <c r="W2" t="n">
-        <v>971.3682694584295</v>
+        <v>1276.2369492184</v>
       </c>
       <c r="X2" t="n">
-        <v>971.3682694584295</v>
+        <v>1223.342616408819</v>
       </c>
       <c r="Y2" t="n">
-        <v>971.3682694584295</v>
+        <v>1223.342616408819</v>
       </c>
     </row>
     <row r="3">
@@ -4383,16 +4383,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>918.8277835713412</v>
+        <v>637.1059755780867</v>
       </c>
       <c r="C3" t="n">
-        <v>757.124110812296</v>
+        <v>475.4023028190414</v>
       </c>
       <c r="D3" t="n">
-        <v>618.285473802508</v>
+        <v>336.5636658092535</v>
       </c>
       <c r="E3" t="n">
-        <v>471.2574638593792</v>
+        <v>336.5636658092535</v>
       </c>
       <c r="F3" t="n">
         <v>336.5636658092535</v>
@@ -4401,58 +4401,58 @@
         <v>207.8351658325381</v>
       </c>
       <c r="H3" t="n">
-        <v>107.8973083792361</v>
+        <v>107.8973083792362</v>
       </c>
       <c r="I3" t="n">
-        <v>39.51502306929711</v>
+        <v>39.51502306929716</v>
       </c>
       <c r="J3" t="n">
-        <v>39.51502306929711</v>
+        <v>39.51502306929716</v>
       </c>
       <c r="K3" t="n">
-        <v>39.51502306929711</v>
+        <v>39.51502306929716</v>
       </c>
       <c r="L3" t="n">
         <v>405.3368682394128</v>
       </c>
       <c r="M3" t="n">
-        <v>890.3702217496392</v>
+        <v>890.3702217496393</v>
       </c>
       <c r="N3" t="n">
-        <v>1123.683653619413</v>
+        <v>1123.683653619416</v>
       </c>
       <c r="O3" t="n">
-        <v>1515.883604403564</v>
+        <v>1515.883604403566</v>
       </c>
       <c r="P3" t="n">
-        <v>1817.979523679261</v>
+        <v>1817.979523679264</v>
       </c>
       <c r="Q3" t="n">
-        <v>1975.751153464856</v>
+        <v>1975.751153464858</v>
       </c>
       <c r="R3" t="n">
-        <v>1975.751153464856</v>
+        <v>1975.751153464858</v>
       </c>
       <c r="S3" t="n">
-        <v>1975.751153464856</v>
+        <v>1975.751153464858</v>
       </c>
       <c r="T3" t="n">
-        <v>1975.751153464856</v>
+        <v>1787.066049630843</v>
       </c>
       <c r="U3" t="n">
-        <v>1938.397032143585</v>
+        <v>1568.571257229153</v>
       </c>
       <c r="V3" t="n">
-        <v>1710.001409591919</v>
+        <v>1340.175634677487</v>
       </c>
       <c r="W3" t="n">
-        <v>1468.685540825229</v>
+        <v>1098.859765910797</v>
       </c>
       <c r="X3" t="n">
-        <v>1270.768552703023</v>
+        <v>900.9427777885918</v>
       </c>
       <c r="Y3" t="n">
-        <v>1078.247226352602</v>
+        <v>708.4214514381706</v>
       </c>
     </row>
     <row r="4">
@@ -4462,37 +4462,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>183.7180674666186</v>
+        <v>571.5742683152296</v>
       </c>
       <c r="C4" t="n">
-        <v>183.7180674666186</v>
+        <v>571.5742683152296</v>
       </c>
       <c r="D4" t="n">
-        <v>183.7180674666186</v>
+        <v>571.5742683152296</v>
       </c>
       <c r="E4" t="n">
-        <v>183.7180674666186</v>
+        <v>571.5742683152296</v>
       </c>
       <c r="F4" t="n">
-        <v>183.7180674666186</v>
+        <v>571.5742683152296</v>
       </c>
       <c r="G4" t="n">
-        <v>183.7180674666186</v>
+        <v>402.6545196830796</v>
       </c>
       <c r="H4" t="n">
-        <v>183.7180674666186</v>
+        <v>243.2818744623534</v>
       </c>
       <c r="I4" t="n">
-        <v>39.51502306929711</v>
+        <v>99.57226165512444</v>
       </c>
       <c r="J4" t="n">
-        <v>39.51502306929711</v>
+        <v>39.51502306929716</v>
       </c>
       <c r="K4" t="n">
-        <v>73.11921081394053</v>
+        <v>73.11921081394057</v>
       </c>
       <c r="L4" t="n">
-        <v>173.7262902142</v>
+        <v>173.7262902142001</v>
       </c>
       <c r="M4" t="n">
         <v>291.7197963418018</v>
@@ -4525,13 +4525,13 @@
         <v>571.5742683152296</v>
       </c>
       <c r="W4" t="n">
-        <v>405.7532262743415</v>
+        <v>571.5742683152296</v>
       </c>
       <c r="X4" t="n">
-        <v>405.7532262743415</v>
+        <v>571.5742683152296</v>
       </c>
       <c r="Y4" t="n">
-        <v>183.7180674666186</v>
+        <v>571.5742683152296</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>234.5065910153347</v>
+        <v>816.4471156640998</v>
       </c>
       <c r="C5" t="n">
-        <v>234.5065910153347</v>
+        <v>434.5133569969072</v>
       </c>
       <c r="D5" t="n">
-        <v>234.5065910153347</v>
+        <v>61.68939222413074</v>
       </c>
       <c r="E5" t="n">
-        <v>234.5065910153347</v>
+        <v>61.68939222413074</v>
       </c>
       <c r="F5" t="n">
-        <v>224.3958043659091</v>
+        <v>51.57860557470512</v>
       </c>
       <c r="G5" t="n">
-        <v>212.3322218605011</v>
+        <v>39.51502306929716</v>
       </c>
       <c r="H5" t="n">
-        <v>212.3322218605011</v>
+        <v>39.51502306929716</v>
       </c>
       <c r="I5" t="n">
-        <v>39.51502306929711</v>
+        <v>39.51502306929716</v>
       </c>
       <c r="J5" t="n">
-        <v>111.5135673421028</v>
+        <v>39.51502306929716</v>
       </c>
       <c r="K5" t="n">
-        <v>351.6539393868856</v>
+        <v>279.6553951140799</v>
       </c>
       <c r="L5" t="n">
-        <v>699.5393124718319</v>
+        <v>627.5407681990262</v>
       </c>
       <c r="M5" t="n">
-        <v>1092.77847872492</v>
+        <v>1020.779934452114</v>
       </c>
       <c r="N5" t="n">
-        <v>1471.109837412635</v>
+        <v>1399.11129313983</v>
       </c>
       <c r="O5" t="n">
-        <v>1776.114421885469</v>
+        <v>1653.162003322268</v>
       </c>
       <c r="P5" t="n">
-        <v>1881.318899778318</v>
+        <v>1881.318899778321</v>
       </c>
       <c r="Q5" t="n">
-        <v>1975.751153464855</v>
+        <v>1975.751153464858</v>
       </c>
       <c r="R5" t="n">
-        <v>1885.112866960709</v>
+        <v>1975.751153464858</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.883891591063</v>
+        <v>1975.751153464858</v>
       </c>
       <c r="T5" t="n">
-        <v>1473.524945322074</v>
+        <v>1751.392207195869</v>
       </c>
       <c r="U5" t="n">
-        <v>1473.524945322074</v>
+        <v>1751.392207195869</v>
       </c>
       <c r="V5" t="n">
-        <v>1136.545671218015</v>
+        <v>1751.392207195869</v>
       </c>
       <c r="W5" t="n">
-        <v>774.0107410756164</v>
+        <v>1751.392207195869</v>
       </c>
       <c r="X5" t="n">
-        <v>391.9806005971097</v>
+        <v>1604.032510606281</v>
       </c>
       <c r="Y5" t="n">
-        <v>234.5065910153347</v>
+        <v>1210.490655182119</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>690.1614261413238</v>
+        <v>574.688988341558</v>
       </c>
       <c r="C6" t="n">
-        <v>528.4577533822785</v>
+        <v>412.9853155825127</v>
       </c>
       <c r="D6" t="n">
-        <v>389.6191163724906</v>
+        <v>274.1466785727248</v>
       </c>
       <c r="E6" t="n">
-        <v>242.5911064293618</v>
+        <v>274.1466785727248</v>
       </c>
       <c r="F6" t="n">
-        <v>107.8973083792361</v>
+        <v>139.4528805225991</v>
       </c>
       <c r="G6" t="n">
-        <v>107.8973083792361</v>
+        <v>139.4528805225991</v>
       </c>
       <c r="H6" t="n">
-        <v>107.8973083792361</v>
+        <v>39.51502306929716</v>
       </c>
       <c r="I6" t="n">
-        <v>39.51502306929711</v>
+        <v>39.51502306929716</v>
       </c>
       <c r="J6" t="n">
-        <v>99.76916960240325</v>
+        <v>99.76916960240331</v>
       </c>
       <c r="K6" t="n">
-        <v>329.2597221625919</v>
+        <v>329.259722162592</v>
       </c>
       <c r="L6" t="n">
-        <v>695.0815673327076</v>
+        <v>695.0815673327077</v>
       </c>
       <c r="M6" t="n">
-        <v>1123.683653619413</v>
+        <v>936.7811624125604</v>
       </c>
       <c r="N6" t="n">
-        <v>1123.683653619413</v>
+        <v>1425.779572895113</v>
       </c>
       <c r="O6" t="n">
-        <v>1515.883604403564</v>
+        <v>1817.979523679264</v>
       </c>
       <c r="P6" t="n">
-        <v>1817.979523679261</v>
+        <v>1817.979523679264</v>
       </c>
       <c r="Q6" t="n">
-        <v>1975.751153464855</v>
+        <v>1975.751153464858</v>
       </c>
       <c r="R6" t="n">
-        <v>1975.751153464855</v>
+        <v>1915.966884559804</v>
       </c>
       <c r="S6" t="n">
-        <v>1975.751153464855</v>
+        <v>1763.167397572544</v>
       </c>
       <c r="T6" t="n">
-        <v>1928.225467115257</v>
+        <v>1574.482293738529</v>
       </c>
       <c r="U6" t="n">
-        <v>1709.730674713567</v>
+        <v>1574.482293738529</v>
       </c>
       <c r="V6" t="n">
-        <v>1481.335052161901</v>
+        <v>1346.086671186863</v>
       </c>
       <c r="W6" t="n">
-        <v>1240.019183395211</v>
+        <v>1104.770802420173</v>
       </c>
       <c r="X6" t="n">
-        <v>1042.102195273006</v>
+        <v>926.6297574732401</v>
       </c>
       <c r="Y6" t="n">
-        <v>849.5808689225846</v>
+        <v>734.108431122819</v>
       </c>
     </row>
     <row r="7">
@@ -4699,37 +4699,37 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>99.57226165512438</v>
+        <v>533.0369269689186</v>
       </c>
       <c r="C7" t="n">
-        <v>99.57226165512438</v>
+        <v>533.0369269689186</v>
       </c>
       <c r="D7" t="n">
-        <v>99.57226165512438</v>
+        <v>403.1479512731721</v>
       </c>
       <c r="E7" t="n">
-        <v>99.57226165512438</v>
+        <v>403.1479512731721</v>
       </c>
       <c r="F7" t="n">
-        <v>99.57226165512438</v>
+        <v>403.1479512731721</v>
       </c>
       <c r="G7" t="n">
-        <v>99.57226165512438</v>
+        <v>403.1479512731721</v>
       </c>
       <c r="H7" t="n">
-        <v>99.57226165512438</v>
+        <v>243.7753060524459</v>
       </c>
       <c r="I7" t="n">
-        <v>99.57226165512438</v>
+        <v>99.57226165512444</v>
       </c>
       <c r="J7" t="n">
-        <v>39.51502306929711</v>
+        <v>39.51502306929716</v>
       </c>
       <c r="K7" t="n">
-        <v>73.11921081394053</v>
+        <v>73.11921081394057</v>
       </c>
       <c r="L7" t="n">
-        <v>173.7262902142</v>
+        <v>173.7262902142001</v>
       </c>
       <c r="M7" t="n">
         <v>291.7197963418018</v>
@@ -4747,28 +4747,28 @@
         <v>533.0369269689186</v>
       </c>
       <c r="R7" t="n">
-        <v>383.5151455832968</v>
+        <v>533.0369269689186</v>
       </c>
       <c r="S7" t="n">
-        <v>169.8053829869843</v>
+        <v>533.0369269689186</v>
       </c>
       <c r="T7" t="n">
-        <v>169.8053829869843</v>
+        <v>533.0369269689186</v>
       </c>
       <c r="U7" t="n">
-        <v>169.8053829869843</v>
+        <v>533.0369269689186</v>
       </c>
       <c r="V7" t="n">
-        <v>99.57226165512438</v>
+        <v>533.0369269689186</v>
       </c>
       <c r="W7" t="n">
-        <v>99.57226165512438</v>
+        <v>533.0369269689186</v>
       </c>
       <c r="X7" t="n">
-        <v>99.57226165512438</v>
+        <v>533.0369269689186</v>
       </c>
       <c r="Y7" t="n">
-        <v>99.57226165512438</v>
+        <v>533.0369269689186</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1262.007322813121</v>
+        <v>1494.823718312466</v>
       </c>
       <c r="C8" t="n">
-        <v>1262.007322813121</v>
+        <v>1494.823718312466</v>
       </c>
       <c r="D8" t="n">
-        <v>889.1833580403445</v>
+        <v>1494.823718312466</v>
       </c>
       <c r="E8" t="n">
-        <v>889.1833580403445</v>
+        <v>1100.037998418573</v>
       </c>
       <c r="F8" t="n">
-        <v>879.0725713909189</v>
+        <v>685.886807728743</v>
       </c>
       <c r="G8" t="n">
-        <v>462.9685848451069</v>
+        <v>374.84553050389</v>
       </c>
       <c r="H8" t="n">
-        <v>214.8414548924032</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I8" t="n">
         <v>42.02425610119923</v>
@@ -4826,28 +4826,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R8" t="n">
-        <v>2010.574518555815</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S8" t="n">
-        <v>1823.345543186168</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="T8" t="n">
-        <v>1598.98659691718</v>
+        <v>1876.853858790972</v>
       </c>
       <c r="U8" t="n">
-        <v>1598.98659691718</v>
+        <v>1876.853858790972</v>
       </c>
       <c r="V8" t="n">
-        <v>1262.007322813121</v>
+        <v>1876.853858790972</v>
       </c>
       <c r="W8" t="n">
-        <v>1262.007322813121</v>
+        <v>1876.853858790972</v>
       </c>
       <c r="X8" t="n">
-        <v>1262.007322813121</v>
+        <v>1494.823718312466</v>
       </c>
       <c r="Y8" t="n">
-        <v>1262.007322813121</v>
+        <v>1494.823718312466</v>
       </c>
     </row>
     <row r="9">
@@ -4857,16 +4857,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>921.3370166032433</v>
+        <v>703.195773126389</v>
       </c>
       <c r="C9" t="n">
-        <v>759.6333438441981</v>
+        <v>624.9395457940723</v>
       </c>
       <c r="D9" t="n">
-        <v>620.7947068344101</v>
+        <v>486.1009087842844</v>
       </c>
       <c r="E9" t="n">
-        <v>473.7666968912813</v>
+        <v>339.0728988411556</v>
       </c>
       <c r="F9" t="n">
         <v>339.0728988411556</v>
@@ -4881,25 +4881,25 @@
         <v>42.02425610119923</v>
       </c>
       <c r="J9" t="n">
-        <v>102.2784026343054</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="K9" t="n">
-        <v>331.768955194494</v>
+        <v>271.5148086613879</v>
       </c>
       <c r="L9" t="n">
-        <v>697.5908003646097</v>
+        <v>554.9422248568675</v>
       </c>
       <c r="M9" t="n">
-        <v>895.6512888769911</v>
+        <v>1039.975578367094</v>
       </c>
       <c r="N9" t="n">
-        <v>1406.916935000113</v>
+        <v>1551.241224490216</v>
       </c>
       <c r="O9" t="n">
-        <v>1799.116885784264</v>
+        <v>1943.441175274367</v>
       </c>
       <c r="P9" t="n">
-        <v>2101.212805059961</v>
+        <v>1943.441175274367</v>
       </c>
       <c r="Q9" t="n">
         <v>2101.212805059961</v>
@@ -4911,22 +4911,22 @@
         <v>1888.629049167647</v>
       </c>
       <c r="T9" t="n">
-        <v>1888.629049167647</v>
+        <v>1699.943945333632</v>
       </c>
       <c r="U9" t="n">
-        <v>1670.134256765957</v>
+        <v>1481.449152931943</v>
       </c>
       <c r="V9" t="n">
-        <v>1670.134256765957</v>
+        <v>1253.053530380276</v>
       </c>
       <c r="W9" t="n">
-        <v>1471.194773857131</v>
+        <v>1253.053530380276</v>
       </c>
       <c r="X9" t="n">
-        <v>1273.277785734925</v>
+        <v>1055.136542258071</v>
       </c>
       <c r="Y9" t="n">
-        <v>1080.756459384504</v>
+        <v>862.6152159076499</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>574.0835013471317</v>
+        <v>186.2273004985207</v>
       </c>
       <c r="C10" t="n">
-        <v>559.6430570721678</v>
+        <v>186.2273004985207</v>
       </c>
       <c r="D10" t="n">
-        <v>406.5711638999306</v>
+        <v>186.2273004985207</v>
       </c>
       <c r="E10" t="n">
-        <v>254.5621496612494</v>
+        <v>186.2273004985207</v>
       </c>
       <c r="F10" t="n">
-        <v>102.0814946870265</v>
+        <v>186.2273004985207</v>
       </c>
       <c r="G10" t="n">
-        <v>102.0814946870265</v>
+        <v>186.2273004985207</v>
       </c>
       <c r="H10" t="n">
-        <v>102.0814946870265</v>
+        <v>186.2273004985207</v>
       </c>
       <c r="I10" t="n">
-        <v>102.0814946870265</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="J10" t="n">
         <v>42.02425610119923</v>
@@ -4981,31 +4981,31 @@
         <v>574.0835013471317</v>
       </c>
       <c r="Q10" t="n">
-        <v>574.0835013471317</v>
+        <v>535.5461600008207</v>
       </c>
       <c r="R10" t="n">
-        <v>574.0835013471317</v>
+        <v>535.5461600008207</v>
       </c>
       <c r="S10" t="n">
-        <v>574.0835013471317</v>
+        <v>535.5461600008207</v>
       </c>
       <c r="T10" t="n">
-        <v>574.0835013471317</v>
+        <v>302.3672068164996</v>
       </c>
       <c r="U10" t="n">
-        <v>574.0835013471317</v>
+        <v>302.3672068164996</v>
       </c>
       <c r="V10" t="n">
-        <v>574.0835013471317</v>
+        <v>186.2273004985207</v>
       </c>
       <c r="W10" t="n">
-        <v>574.0835013471317</v>
+        <v>186.2273004985207</v>
       </c>
       <c r="X10" t="n">
-        <v>574.0835013471317</v>
+        <v>186.2273004985207</v>
       </c>
       <c r="Y10" t="n">
-        <v>574.0835013471317</v>
+        <v>186.2273004985207</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1565.08848652551</v>
+        <v>987.9547476967899</v>
       </c>
       <c r="C11" t="n">
-        <v>1275.977412115926</v>
+        <v>987.9547476967899</v>
       </c>
       <c r="D11" t="n">
-        <v>1237.672108863875</v>
+        <v>987.9547476967899</v>
       </c>
       <c r="E11" t="n">
-        <v>935.709073227591</v>
+        <v>685.9917120605057</v>
       </c>
       <c r="F11" t="n">
-        <v>614.3805667953704</v>
+        <v>364.6632056282851</v>
       </c>
       <c r="G11" t="n">
-        <v>291.0992645071674</v>
+        <v>364.6632056282851</v>
       </c>
       <c r="H11" t="n">
-        <v>51.10067436208574</v>
+        <v>131.0951888956807</v>
       </c>
       <c r="I11" t="n">
         <v>51.10067436208574</v>
@@ -5045,46 +5045,46 @@
         <v>454.2151035205568</v>
       </c>
       <c r="L11" t="n">
-        <v>802.100476605503</v>
+        <v>893.0759894463856</v>
       </c>
       <c r="M11" t="n">
         <v>1286.315155699474</v>
       </c>
       <c r="N11" t="n">
-        <v>1664.646514387189</v>
+        <v>1755.622027228072</v>
       </c>
       <c r="O11" t="n">
-        <v>2048.352614041763</v>
+        <v>2141.469055120814</v>
       </c>
       <c r="P11" t="n">
-        <v>2367.485023338699</v>
+        <v>2460.60146441775</v>
       </c>
       <c r="Q11" t="n">
-        <v>2552.892789866119</v>
+        <v>2555.033718104287</v>
       </c>
       <c r="R11" t="n">
         <v>2555.033718104287</v>
       </c>
       <c r="S11" t="n">
-        <v>2460.62742699225</v>
+        <v>2555.033718104287</v>
       </c>
       <c r="T11" t="n">
-        <v>2329.09116498087</v>
+        <v>2555.033718104287</v>
       </c>
       <c r="U11" t="n">
-        <v>2167.028512952473</v>
+        <v>2392.97106607589</v>
       </c>
       <c r="V11" t="n">
-        <v>2167.028512952473</v>
+        <v>2148.814476229441</v>
       </c>
       <c r="W11" t="n">
-        <v>2167.028512952473</v>
+        <v>1879.10223034465</v>
       </c>
       <c r="X11" t="n">
-        <v>2167.028512952473</v>
+        <v>1589.894774123753</v>
       </c>
       <c r="Y11" t="n">
-        <v>1866.30934178592</v>
+        <v>1289.1756029572</v>
       </c>
     </row>
     <row r="12">
@@ -5094,10 +5094,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>915.700817404025</v>
+        <v>930.4134348641297</v>
       </c>
       <c r="C12" t="n">
-        <v>753.9971446449797</v>
+        <v>768.7097621050845</v>
       </c>
       <c r="D12" t="n">
         <v>629.8711250952965</v>
@@ -5118,13 +5118,13 @@
         <v>51.10067436208574</v>
       </c>
       <c r="J12" t="n">
-        <v>111.354820895192</v>
+        <v>111.3548208951919</v>
       </c>
       <c r="K12" t="n">
         <v>340.8453734553806</v>
       </c>
       <c r="L12" t="n">
-        <v>706.6672186254963</v>
+        <v>706.6672186254962</v>
       </c>
       <c r="M12" t="n">
         <v>1191.700572135723</v>
@@ -5160,10 +5160,10 @@
         <v>1465.558574657912</v>
       </c>
       <c r="X12" t="n">
-        <v>1267.641586535707</v>
+        <v>1282.354203995812</v>
       </c>
       <c r="Y12" t="n">
-        <v>1075.120260185286</v>
+        <v>1089.832877645391</v>
       </c>
     </row>
     <row r="13">
@@ -5173,43 +5173,43 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>238.8273077909674</v>
+        <v>373.5374302182277</v>
       </c>
       <c r="C13" t="n">
-        <v>238.8273077909674</v>
+        <v>296.744144937517</v>
       </c>
       <c r="D13" t="n">
-        <v>178.5780988763391</v>
+        <v>236.4949360228888</v>
       </c>
       <c r="E13" t="n">
-        <v>178.5780988763391</v>
+        <v>177.3086060418166</v>
       </c>
       <c r="F13" t="n">
-        <v>178.5780988763391</v>
+        <v>117.6506353252028</v>
       </c>
       <c r="G13" t="n">
-        <v>102.4810345017982</v>
+        <v>117.6506353252028</v>
       </c>
       <c r="H13" t="n">
-        <v>102.4810345017982</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="I13" t="n">
         <v>51.10067436208574</v>
       </c>
       <c r="J13" t="n">
-        <v>83.21408766499906</v>
+        <v>83.21408766499908</v>
       </c>
       <c r="K13" t="n">
-        <v>207.7937882505251</v>
+        <v>207.7937882505252</v>
       </c>
       <c r="L13" t="n">
-        <v>399.3763804916672</v>
+        <v>399.3763804916673</v>
       </c>
       <c r="M13" t="n">
-        <v>608.3453994601515</v>
+        <v>608.3453994601516</v>
       </c>
       <c r="N13" t="n">
-        <v>817.7432540506345</v>
+        <v>817.7432540506346</v>
       </c>
       <c r="O13" t="n">
         <v>1007.182413387207</v>
@@ -5218,31 +5218,31 @@
         <v>1161.126409956227</v>
       </c>
       <c r="Q13" t="n">
-        <v>1214.33147454359</v>
+        <v>1214.331474543591</v>
       </c>
       <c r="R13" t="n">
-        <v>1157.632377415578</v>
+        <v>1214.331474543591</v>
       </c>
       <c r="S13" t="n">
-        <v>1036.745299076874</v>
+        <v>1214.331474543591</v>
       </c>
       <c r="T13" t="n">
-        <v>896.3890301501622</v>
+        <v>1073.975205616878</v>
       </c>
       <c r="U13" t="n">
-        <v>702.021474896871</v>
+        <v>879.6076503635874</v>
       </c>
       <c r="V13" t="n">
-        <v>534.108854712902</v>
+        <v>711.695030179619</v>
       </c>
       <c r="W13" t="n">
-        <v>534.108854712902</v>
+        <v>518.3613129546274</v>
       </c>
       <c r="X13" t="n">
-        <v>458.7724667678521</v>
+        <v>518.3613129546274</v>
       </c>
       <c r="Y13" t="n">
-        <v>329.5599922177382</v>
+        <v>464.2701146449984</v>
       </c>
     </row>
     <row r="14">
@@ -5252,52 +5252,52 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1285.449191374833</v>
+        <v>1791.031039648927</v>
       </c>
       <c r="C14" t="n">
-        <v>996.3381169652495</v>
+        <v>1501.919965239343</v>
       </c>
       <c r="D14" t="n">
-        <v>996.3381169652495</v>
+        <v>1221.918684724176</v>
       </c>
       <c r="E14" t="n">
-        <v>694.3750813289653</v>
+        <v>919.9556490878917</v>
       </c>
       <c r="F14" t="n">
-        <v>694.3750813289653</v>
+        <v>598.6271426556712</v>
       </c>
       <c r="G14" t="n">
-        <v>371.0937790407624</v>
+        <v>275.3458403674682</v>
       </c>
       <c r="H14" t="n">
-        <v>131.0951888956807</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="I14" t="n">
         <v>51.10067436208573</v>
       </c>
       <c r="J14" t="n">
-        <v>201.8007338166315</v>
+        <v>123.0992186348914</v>
       </c>
       <c r="K14" t="n">
-        <v>441.9411058614143</v>
+        <v>363.2395906796742</v>
       </c>
       <c r="L14" t="n">
-        <v>789.8264789463606</v>
+        <v>711.1249637646204</v>
       </c>
       <c r="M14" t="n">
-        <v>1183.065645199448</v>
+        <v>1195.339642858591</v>
       </c>
       <c r="N14" t="n">
-        <v>1652.372516728047</v>
+        <v>1664.646514387189</v>
       </c>
       <c r="O14" t="n">
-        <v>2048.352614041763</v>
+        <v>2060.626611700906</v>
       </c>
       <c r="P14" t="n">
-        <v>2367.485023338699</v>
+        <v>2369.625951576867</v>
       </c>
       <c r="Q14" t="n">
-        <v>2552.892789866119</v>
+        <v>2555.033718104286</v>
       </c>
       <c r="R14" t="n">
         <v>2555.033718104287</v>
@@ -5306,22 +5306,22 @@
         <v>2555.033718104287</v>
       </c>
       <c r="T14" t="n">
-        <v>2423.497456092907</v>
+        <v>2555.033718104287</v>
       </c>
       <c r="U14" t="n">
-        <v>2423.497456092907</v>
+        <v>2392.97106607589</v>
       </c>
       <c r="V14" t="n">
-        <v>2179.340866246458</v>
+        <v>2392.97106607589</v>
       </c>
       <c r="W14" t="n">
-        <v>1909.628620361668</v>
+        <v>2392.97106607589</v>
       </c>
       <c r="X14" t="n">
-        <v>1620.42116414077</v>
+        <v>2392.97106607589</v>
       </c>
       <c r="Y14" t="n">
-        <v>1586.670046635243</v>
+        <v>2092.251894909337</v>
       </c>
     </row>
     <row r="15">
@@ -5331,16 +5331,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>930.4134348641297</v>
+        <v>915.7008174040254</v>
       </c>
       <c r="C15" t="n">
-        <v>768.7097621050845</v>
+        <v>753.9971446449802</v>
       </c>
       <c r="D15" t="n">
-        <v>629.8711250952965</v>
+        <v>615.1585076351922</v>
       </c>
       <c r="E15" t="n">
-        <v>482.8431151521678</v>
+        <v>468.1304976920634</v>
       </c>
       <c r="F15" t="n">
         <v>348.1493171020421</v>
@@ -5379,28 +5379,28 @@
         <v>2555.033718104287</v>
       </c>
       <c r="R15" t="n">
-        <v>2509.962066659337</v>
+        <v>2495.249449199233</v>
       </c>
       <c r="S15" t="n">
-        <v>2357.162579672078</v>
+        <v>2342.449962211973</v>
       </c>
       <c r="T15" t="n">
-        <v>2168.477475838063</v>
+        <v>2153.764858377959</v>
       </c>
       <c r="U15" t="n">
-        <v>1949.982683436373</v>
+        <v>1935.270065976269</v>
       </c>
       <c r="V15" t="n">
-        <v>1721.587060884707</v>
+        <v>1706.874443424603</v>
       </c>
       <c r="W15" t="n">
-        <v>1480.271192118017</v>
+        <v>1465.558574657913</v>
       </c>
       <c r="X15" t="n">
-        <v>1282.354203995812</v>
+        <v>1267.641586535707</v>
       </c>
       <c r="Y15" t="n">
-        <v>1089.832877645391</v>
+        <v>1075.120260185286</v>
       </c>
     </row>
     <row r="16">
@@ -5410,43 +5410,43 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>129.8319802187949</v>
+        <v>449.6344945927689</v>
       </c>
       <c r="C16" t="n">
-        <v>129.8319802187949</v>
+        <v>372.8412093120583</v>
       </c>
       <c r="D16" t="n">
-        <v>69.5827713041665</v>
+        <v>312.59200039743</v>
       </c>
       <c r="E16" t="n">
-        <v>69.5827713041665</v>
+        <v>253.4056704163578</v>
       </c>
       <c r="F16" t="n">
-        <v>69.5827713041665</v>
+        <v>193.7476996997439</v>
       </c>
       <c r="G16" t="n">
-        <v>69.5827713041665</v>
+        <v>117.6506353252029</v>
       </c>
       <c r="H16" t="n">
-        <v>69.5827713041665</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="I16" t="n">
         <v>51.10067436208573</v>
       </c>
       <c r="J16" t="n">
-        <v>83.21408766499904</v>
+        <v>83.21408766499901</v>
       </c>
       <c r="K16" t="n">
-        <v>207.7937882505251</v>
+        <v>207.793788250525</v>
       </c>
       <c r="L16" t="n">
-        <v>399.3763804916672</v>
+        <v>399.3763804916671</v>
       </c>
       <c r="M16" t="n">
-        <v>608.3453994601515</v>
+        <v>608.3453994601514</v>
       </c>
       <c r="N16" t="n">
-        <v>817.7432540506345</v>
+        <v>817.7432540506344</v>
       </c>
       <c r="O16" t="n">
         <v>1007.182413387207</v>
@@ -5455,31 +5455,31 @@
         <v>1161.126409956227</v>
       </c>
       <c r="Q16" t="n">
-        <v>1214.331474543591</v>
+        <v>1214.33147454359</v>
       </c>
       <c r="R16" t="n">
-        <v>1214.331474543591</v>
+        <v>1157.632377415577</v>
       </c>
       <c r="S16" t="n">
-        <v>1093.444396204887</v>
+        <v>1157.632377415577</v>
       </c>
       <c r="T16" t="n">
-        <v>953.088127278175</v>
+        <v>1040.043296275515</v>
       </c>
       <c r="U16" t="n">
-        <v>758.7205720248842</v>
+        <v>1040.043296275515</v>
       </c>
       <c r="V16" t="n">
-        <v>590.8079518409158</v>
+        <v>872.1306760915468</v>
       </c>
       <c r="W16" t="n">
-        <v>397.474234615924</v>
+        <v>678.796958866555</v>
       </c>
       <c r="X16" t="n">
-        <v>259.0444547689088</v>
+        <v>540.3671790195398</v>
       </c>
       <c r="Y16" t="n">
-        <v>129.8319802187949</v>
+        <v>540.3671790195398</v>
       </c>
     </row>
     <row r="17">
@@ -5516,25 +5516,25 @@
         <v>287.5669931259238</v>
       </c>
       <c r="K17" t="n">
-        <v>527.7073651707066</v>
+        <v>692.175139661739</v>
       </c>
       <c r="L17" t="n">
-        <v>875.5927382556529</v>
+        <v>1040.060512746685</v>
       </c>
       <c r="M17" t="n">
-        <v>1268.831904508741</v>
+        <v>1433.299678999773</v>
       </c>
       <c r="N17" t="n">
-        <v>1647.163263196456</v>
+        <v>1811.631037687489</v>
       </c>
       <c r="O17" t="n">
-        <v>1952.16784766929</v>
+        <v>2116.635622160323</v>
       </c>
       <c r="P17" t="n">
         <v>2344.792518616376</v>
       </c>
       <c r="Q17" t="n">
-        <v>2479.400528215969</v>
+        <v>2555.033718104287</v>
       </c>
       <c r="R17" t="n">
         <v>2555.033718104287</v>
@@ -5568,19 +5568,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>915.700817404025</v>
+        <v>930.4134348641297</v>
       </c>
       <c r="C18" t="n">
-        <v>753.9971446449797</v>
+        <v>768.7097621050845</v>
       </c>
       <c r="D18" t="n">
-        <v>615.1585076351918</v>
+        <v>629.8711250952965</v>
       </c>
       <c r="E18" t="n">
-        <v>468.130497692063</v>
+        <v>482.8431151521678</v>
       </c>
       <c r="F18" t="n">
-        <v>333.4366996419374</v>
+        <v>348.1493171020421</v>
       </c>
       <c r="G18" t="n">
         <v>219.4208171253267</v>
@@ -5592,13 +5592,13 @@
         <v>51.10067436208574</v>
       </c>
       <c r="J18" t="n">
-        <v>111.354820895192</v>
+        <v>111.3548208951919</v>
       </c>
       <c r="K18" t="n">
         <v>340.8453734553806</v>
       </c>
       <c r="L18" t="n">
-        <v>706.6672186254963</v>
+        <v>706.6672186254962</v>
       </c>
       <c r="M18" t="n">
         <v>1191.700572135723</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>52.90950739287318</v>
+        <v>54.02211951749091</v>
       </c>
       <c r="C19" t="n">
+        <v>52.21328648670347</v>
+      </c>
+      <c r="D19" t="n">
+        <v>52.21328648670347</v>
+      </c>
+      <c r="E19" t="n">
+        <v>52.21328648670347</v>
+      </c>
+      <c r="F19" t="n">
+        <v>52.21328648670347</v>
+      </c>
+      <c r="G19" t="n">
         <v>51.10067436208574</v>
       </c>
-      <c r="D19" t="n">
-        <v>65.54268635500837</v>
-      </c>
-      <c r="E19" t="n">
-        <v>81.02642599070934</v>
-      </c>
-      <c r="F19" t="n">
-        <v>96.04791054150587</v>
-      </c>
-      <c r="G19" t="n">
-        <v>94.93529841688814</v>
-      </c>
       <c r="H19" t="n">
-        <v>94.93529841688814</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="I19" t="n">
-        <v>96.20682289912145</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J19" t="n">
-        <v>96.20682289912145</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="K19" t="n">
-        <v>129.8110106437649</v>
+        <v>84.70486210672915</v>
       </c>
       <c r="L19" t="n">
-        <v>230.4180900440244</v>
+        <v>185.3119415069887</v>
       </c>
       <c r="M19" t="n">
-        <v>348.4115961716261</v>
+        <v>303.3054476345904</v>
       </c>
       <c r="N19" t="n">
-        <v>466.8339379212265</v>
+        <v>421.7277893841908</v>
       </c>
       <c r="O19" t="n">
-        <v>565.2975844169162</v>
+        <v>520.1914358798805</v>
       </c>
       <c r="P19" t="n">
-        <v>628.266068145054</v>
+        <v>583.1599196080183</v>
       </c>
       <c r="Q19" t="n">
-        <v>628.266068145054</v>
+        <v>629.3786802696717</v>
       </c>
       <c r="R19" t="n">
-        <v>628.266068145054</v>
+        <v>629.3786802696717</v>
       </c>
       <c r="S19" t="n">
-        <v>582.3634420562738</v>
+        <v>583.4760541808915</v>
       </c>
       <c r="T19" t="n">
-        <v>516.991625379485</v>
+        <v>518.1042375041027</v>
       </c>
       <c r="U19" t="n">
-        <v>397.6085223761172</v>
+        <v>398.7211345007349</v>
       </c>
       <c r="V19" t="n">
-        <v>304.680354442072</v>
+        <v>305.7929665666898</v>
       </c>
       <c r="W19" t="n">
-        <v>186.3310894670034</v>
+        <v>187.4437015916211</v>
       </c>
       <c r="X19" t="n">
-        <v>122.8857618699114</v>
+        <v>123.9983739945291</v>
       </c>
       <c r="Y19" t="n">
-        <v>68.65773956972075</v>
+        <v>69.77035169433847</v>
       </c>
     </row>
     <row r="20">
@@ -5750,28 +5750,28 @@
         <v>51.10067436208574</v>
       </c>
       <c r="J20" t="n">
-        <v>287.5669931259238</v>
+        <v>123.0992186348914</v>
       </c>
       <c r="K20" t="n">
-        <v>643.5163109720804</v>
+        <v>363.2395906796742</v>
       </c>
       <c r="L20" t="n">
-        <v>991.4016840570267</v>
+        <v>711.1249637646204</v>
       </c>
       <c r="M20" t="n">
-        <v>1549.108624801147</v>
+        <v>1104.364130017708</v>
       </c>
       <c r="N20" t="n">
-        <v>1927.439983488863</v>
+        <v>1482.695488705424</v>
       </c>
       <c r="O20" t="n">
-        <v>2232.444567961697</v>
+        <v>1952.16784766929</v>
       </c>
       <c r="P20" t="n">
-        <v>2460.60146441775</v>
+        <v>2344.792518616376</v>
       </c>
       <c r="Q20" t="n">
-        <v>2555.033718104287</v>
+        <v>2479.400528215969</v>
       </c>
       <c r="R20" t="n">
         <v>2555.033718104287</v>
@@ -5829,13 +5829,13 @@
         <v>51.10067436208574</v>
       </c>
       <c r="J21" t="n">
-        <v>111.354820895192</v>
+        <v>111.3548208951919</v>
       </c>
       <c r="K21" t="n">
         <v>340.8453734553806</v>
       </c>
       <c r="L21" t="n">
-        <v>706.6672186254963</v>
+        <v>706.6672186254962</v>
       </c>
       <c r="M21" t="n">
         <v>1191.700572135723</v>
@@ -5853,10 +5853,10 @@
         <v>2555.033718104287</v>
       </c>
       <c r="R21" t="n">
-        <v>2509.962066659337</v>
+        <v>2495.249449199232</v>
       </c>
       <c r="S21" t="n">
-        <v>2357.162579672078</v>
+        <v>2342.449962211973</v>
       </c>
       <c r="T21" t="n">
         <v>2168.477475838063</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>52.90950739287318</v>
+        <v>54.02211951749091</v>
       </c>
       <c r="C22" t="n">
+        <v>52.21328648670347</v>
+      </c>
+      <c r="D22" t="n">
+        <v>52.21328648670347</v>
+      </c>
+      <c r="E22" t="n">
+        <v>52.21328648670347</v>
+      </c>
+      <c r="F22" t="n">
+        <v>52.21328648670347</v>
+      </c>
+      <c r="G22" t="n">
         <v>51.10067436208574</v>
       </c>
-      <c r="D22" t="n">
-        <v>64.37647391795821</v>
-      </c>
-      <c r="E22" t="n">
-        <v>64.37647391795821</v>
-      </c>
-      <c r="F22" t="n">
-        <v>79.39795846875474</v>
-      </c>
-      <c r="G22" t="n">
-        <v>78.28534634413701</v>
-      </c>
       <c r="H22" t="n">
-        <v>78.28534634413701</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="I22" t="n">
-        <v>78.28534634413701</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J22" t="n">
-        <v>78.28534634413701</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="K22" t="n">
-        <v>111.8895340887804</v>
+        <v>130.9236227683826</v>
       </c>
       <c r="L22" t="n">
-        <v>212.4966134890399</v>
+        <v>231.5307021686421</v>
       </c>
       <c r="M22" t="n">
-        <v>330.4901196166417</v>
+        <v>349.5242082962438</v>
       </c>
       <c r="N22" t="n">
-        <v>448.912461366242</v>
+        <v>467.9465500458442</v>
       </c>
       <c r="O22" t="n">
-        <v>547.3761078619317</v>
+        <v>566.4101965415339</v>
       </c>
       <c r="P22" t="n">
-        <v>610.3445915900695</v>
+        <v>629.3786802696717</v>
       </c>
       <c r="Q22" t="n">
-        <v>610.3445915900695</v>
+        <v>629.3786802696717</v>
       </c>
       <c r="R22" t="n">
-        <v>628.266068145054</v>
+        <v>629.3786802696717</v>
       </c>
       <c r="S22" t="n">
-        <v>582.3634420562738</v>
+        <v>583.4760541808915</v>
       </c>
       <c r="T22" t="n">
-        <v>516.991625379485</v>
+        <v>518.1042375041027</v>
       </c>
       <c r="U22" t="n">
-        <v>397.6085223761172</v>
+        <v>398.7211345007349</v>
       </c>
       <c r="V22" t="n">
-        <v>304.680354442072</v>
+        <v>305.7929665666898</v>
       </c>
       <c r="W22" t="n">
-        <v>186.3310894670034</v>
+        <v>187.4437015916211</v>
       </c>
       <c r="X22" t="n">
-        <v>122.8857618699114</v>
+        <v>123.9983739945291</v>
       </c>
       <c r="Y22" t="n">
-        <v>68.65773956972075</v>
+        <v>69.77035169433847</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1361.887812572759</v>
+        <v>1361.887812572758</v>
       </c>
       <c r="C23" t="n">
         <v>1147.761190413098</v>
       </c>
       <c r="D23" t="n">
-        <v>942.7443621478541</v>
+        <v>942.7443621478536</v>
       </c>
       <c r="E23" t="n">
-        <v>715.7657787614932</v>
+        <v>715.7657787614927</v>
       </c>
       <c r="F23" t="n">
-        <v>469.4217245791957</v>
+        <v>469.4217245791953</v>
       </c>
       <c r="G23" t="n">
-        <v>221.1248745409159</v>
+        <v>221.1248745409155</v>
       </c>
       <c r="H23" t="n">
-        <v>56.11073664575746</v>
+        <v>56.11073664575745</v>
       </c>
       <c r="I23" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="J23" t="n">
-        <v>287.5669931259238</v>
+        <v>123.0992186348914</v>
       </c>
       <c r="K23" t="n">
-        <v>692.175139661739</v>
+        <v>363.2395906796742</v>
       </c>
       <c r="L23" t="n">
-        <v>1080.236268659741</v>
+        <v>875.5927382556528</v>
       </c>
       <c r="M23" t="n">
-        <v>1473.475434912829</v>
+        <v>1268.831904508741</v>
       </c>
       <c r="N23" t="n">
-        <v>1851.806793600545</v>
+        <v>1762.97220899783</v>
       </c>
       <c r="O23" t="n">
-        <v>2156.811378073379</v>
+        <v>2232.444567961696</v>
       </c>
       <c r="P23" t="n">
-        <v>2384.968274529432</v>
+        <v>2460.601464417749</v>
       </c>
       <c r="Q23" t="n">
-        <v>2479.400528215969</v>
+        <v>2555.033718104286</v>
       </c>
       <c r="R23" t="n">
-        <v>2555.033718104287</v>
+        <v>2555.033718104286</v>
       </c>
       <c r="S23" t="n">
         <v>2535.611879242173</v>
       </c>
       <c r="T23" t="n">
-        <v>2479.060069480717</v>
+        <v>2479.060069480716</v>
       </c>
       <c r="U23" t="n">
-        <v>2391.981869702243</v>
+        <v>2391.981869702242</v>
       </c>
       <c r="V23" t="n">
-        <v>2222.809732105717</v>
+        <v>2222.809732105716</v>
       </c>
       <c r="W23" t="n">
-        <v>2028.08193847085</v>
+        <v>2028.081938470849</v>
       </c>
       <c r="X23" t="n">
         <v>1813.858934499875</v>
       </c>
       <c r="Y23" t="n">
-        <v>1588.124215583246</v>
+        <v>1588.124215583245</v>
       </c>
     </row>
     <row r="24">
@@ -6042,37 +6042,37 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>915.700817404025</v>
+        <v>930.4134348641297</v>
       </c>
       <c r="C24" t="n">
-        <v>753.9971446449797</v>
+        <v>768.7097621050845</v>
       </c>
       <c r="D24" t="n">
-        <v>615.1585076351918</v>
+        <v>629.8711250952965</v>
       </c>
       <c r="E24" t="n">
-        <v>468.130497692063</v>
+        <v>482.8431151521678</v>
       </c>
       <c r="F24" t="n">
-        <v>333.4366996419374</v>
+        <v>348.1493171020421</v>
       </c>
       <c r="G24" t="n">
-        <v>204.7081996652219</v>
+        <v>219.4208171253267</v>
       </c>
       <c r="H24" t="n">
-        <v>104.77034221192</v>
+        <v>119.4829596720247</v>
       </c>
       <c r="I24" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="J24" t="n">
-        <v>111.354820895192</v>
+        <v>111.3548208951919</v>
       </c>
       <c r="K24" t="n">
-        <v>340.8453734553806</v>
+        <v>340.8453734553805</v>
       </c>
       <c r="L24" t="n">
-        <v>706.6672186254963</v>
+        <v>706.6672186254962</v>
       </c>
       <c r="M24" t="n">
         <v>1191.700572135723</v>
@@ -6084,34 +6084,34 @@
         <v>2095.166169042996</v>
       </c>
       <c r="P24" t="n">
-        <v>2397.262088318693</v>
+        <v>2397.262088318692</v>
       </c>
       <c r="Q24" t="n">
-        <v>2555.033718104287</v>
+        <v>2555.033718104286</v>
       </c>
       <c r="R24" t="n">
         <v>2495.249449199232</v>
       </c>
       <c r="S24" t="n">
-        <v>2342.449962211973</v>
+        <v>2342.449962211972</v>
       </c>
       <c r="T24" t="n">
         <v>2153.764858377958</v>
       </c>
       <c r="U24" t="n">
-        <v>1935.270065976268</v>
+        <v>1949.982683436373</v>
       </c>
       <c r="V24" t="n">
-        <v>1706.874443424602</v>
+        <v>1721.587060884707</v>
       </c>
       <c r="W24" t="n">
-        <v>1465.558574657912</v>
+        <v>1480.271192118017</v>
       </c>
       <c r="X24" t="n">
-        <v>1267.641586535707</v>
+        <v>1282.354203995812</v>
       </c>
       <c r="Y24" t="n">
-        <v>1075.120260185286</v>
+        <v>1089.832877645391</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>52.90950739287318</v>
+        <v>54.02211951749089</v>
       </c>
       <c r="C25" t="n">
-        <v>51.10067436208574</v>
+        <v>52.21328648670345</v>
       </c>
       <c r="D25" t="n">
-        <v>51.10067436208574</v>
+        <v>52.21328648670345</v>
       </c>
       <c r="E25" t="n">
-        <v>51.10067436208574</v>
+        <v>52.21328648670345</v>
       </c>
       <c r="F25" t="n">
-        <v>66.12215891288227</v>
+        <v>52.21328648670345</v>
       </c>
       <c r="G25" t="n">
-        <v>65.00954678826454</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="H25" t="n">
-        <v>65.00954678826454</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="I25" t="n">
-        <v>88.14391746548213</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="J25" t="n">
-        <v>96.20682289912145</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="K25" t="n">
-        <v>129.8110106437649</v>
+        <v>84.70486210672914</v>
       </c>
       <c r="L25" t="n">
-        <v>230.4180900440244</v>
+        <v>185.3119415069887</v>
       </c>
       <c r="M25" t="n">
-        <v>348.4115961716261</v>
+        <v>303.3054476345904</v>
       </c>
       <c r="N25" t="n">
-        <v>466.8339379212265</v>
+        <v>421.7277893841908</v>
       </c>
       <c r="O25" t="n">
-        <v>565.2975844169162</v>
+        <v>566.4101965415339</v>
       </c>
       <c r="P25" t="n">
-        <v>628.266068145054</v>
+        <v>629.3786802696717</v>
       </c>
       <c r="Q25" t="n">
-        <v>628.266068145054</v>
+        <v>629.3786802696717</v>
       </c>
       <c r="R25" t="n">
-        <v>628.266068145054</v>
+        <v>629.3786802696717</v>
       </c>
       <c r="S25" t="n">
-        <v>582.3634420562738</v>
+        <v>583.4760541808915</v>
       </c>
       <c r="T25" t="n">
-        <v>516.991625379485</v>
+        <v>518.1042375041027</v>
       </c>
       <c r="U25" t="n">
-        <v>397.6085223761172</v>
+        <v>398.7211345007348</v>
       </c>
       <c r="V25" t="n">
-        <v>304.680354442072</v>
+        <v>305.7929665666896</v>
       </c>
       <c r="W25" t="n">
-        <v>186.3310894670034</v>
+        <v>187.443701591621</v>
       </c>
       <c r="X25" t="n">
-        <v>122.8857618699114</v>
+        <v>123.9983739945291</v>
       </c>
       <c r="Y25" t="n">
-        <v>68.65773956972075</v>
+        <v>69.77035169433844</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1638.398690093981</v>
+        <v>1638.39869009398</v>
       </c>
       <c r="C26" t="n">
         <v>1386.425607044544</v>
       </c>
       <c r="D26" t="n">
-        <v>1143.562317889524</v>
+        <v>1143.562317889523</v>
       </c>
       <c r="E26" t="n">
-        <v>878.7372736133867</v>
+        <v>878.7372736133864</v>
       </c>
       <c r="F26" t="n">
-        <v>594.546758541313</v>
+        <v>594.5467585413128</v>
       </c>
       <c r="G26" t="n">
         <v>308.403447613257</v>
       </c>
       <c r="H26" t="n">
-        <v>105.5428488283223</v>
+        <v>105.5428488283222</v>
       </c>
       <c r="I26" t="n">
-        <v>62.68632565487438</v>
+        <v>62.68632565487434</v>
       </c>
       <c r="J26" t="n">
-        <v>262.0593281006427</v>
+        <v>262.0593281006428</v>
       </c>
       <c r="K26" t="n">
-        <v>629.5741583183881</v>
+        <v>629.5741583183884</v>
       </c>
       <c r="L26" t="n">
-        <v>1059.73985875243</v>
+        <v>1059.739858752426</v>
       </c>
       <c r="M26" t="n">
-        <v>1580.35348317848</v>
+        <v>1580.353483178476</v>
       </c>
       <c r="N26" t="n">
-        <v>2086.059300039159</v>
+        <v>2086.059300039155</v>
       </c>
       <c r="O26" t="n">
-        <v>2518.438342684955</v>
+        <v>2518.438342684952</v>
       </c>
       <c r="P26" t="n">
-        <v>2873.969697313971</v>
+        <v>2873.969697313968</v>
       </c>
       <c r="Q26" t="n">
-        <v>3095.776409173471</v>
+        <v>3095.776409173468</v>
       </c>
       <c r="R26" t="n">
-        <v>3134.316282743719</v>
+        <v>3134.316282743717</v>
       </c>
       <c r="S26" t="n">
-        <v>3077.047982991829</v>
+        <v>3077.047982991827</v>
       </c>
       <c r="T26" t="n">
-        <v>2982.649712340596</v>
+        <v>2982.649712340594</v>
       </c>
       <c r="U26" t="n">
-        <v>2857.725051672346</v>
+        <v>2857.725051672344</v>
       </c>
       <c r="V26" t="n">
-        <v>2650.706453186044</v>
+        <v>2650.706453186042</v>
       </c>
       <c r="W26" t="n">
-        <v>2418.132198661401</v>
+        <v>2418.132198661399</v>
       </c>
       <c r="X26" t="n">
-        <v>2166.06273380065</v>
+        <v>2166.062733800649</v>
       </c>
       <c r="Y26" t="n">
-        <v>1902.481553994244</v>
+        <v>1902.481553994243</v>
       </c>
     </row>
     <row r="27">
@@ -6279,37 +6279,37 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>941.9990861569185</v>
+        <v>927.2864686968139</v>
       </c>
       <c r="C27" t="n">
-        <v>780.2954133978732</v>
+        <v>765.5827959377687</v>
       </c>
       <c r="D27" t="n">
-        <v>641.4567763880852</v>
+        <v>626.7441589279807</v>
       </c>
       <c r="E27" t="n">
-        <v>494.4287664449564</v>
+        <v>479.7161489848519</v>
       </c>
       <c r="F27" t="n">
-        <v>359.7349683948307</v>
+        <v>345.0223509347263</v>
       </c>
       <c r="G27" t="n">
         <v>231.0064684181153</v>
       </c>
       <c r="H27" t="n">
-        <v>131.0686109648134</v>
+        <v>131.0686109648133</v>
       </c>
       <c r="I27" t="n">
-        <v>62.68632565487438</v>
+        <v>62.68632565487434</v>
       </c>
       <c r="J27" t="n">
         <v>122.9404721879805</v>
       </c>
       <c r="K27" t="n">
-        <v>352.4310247481692</v>
+        <v>352.4310247481691</v>
       </c>
       <c r="L27" t="n">
-        <v>718.2528699182849</v>
+        <v>718.2528699182848</v>
       </c>
       <c r="M27" t="n">
         <v>1203.286223428511</v>
@@ -6327,28 +6327,28 @@
         <v>2566.619369397076</v>
       </c>
       <c r="R27" t="n">
-        <v>2521.547717952126</v>
+        <v>2506.835100492021</v>
       </c>
       <c r="S27" t="n">
-        <v>2368.748230964866</v>
+        <v>2354.035613504762</v>
       </c>
       <c r="T27" t="n">
-        <v>2180.063127130852</v>
+        <v>2165.350509670747</v>
       </c>
       <c r="U27" t="n">
-        <v>1961.568334729162</v>
+        <v>1946.855717269057</v>
       </c>
       <c r="V27" t="n">
-        <v>1733.172712177496</v>
+        <v>1718.460094717391</v>
       </c>
       <c r="W27" t="n">
-        <v>1491.856843410806</v>
+        <v>1477.144225950701</v>
       </c>
       <c r="X27" t="n">
-        <v>1293.9398552886</v>
+        <v>1279.227237828496</v>
       </c>
       <c r="Y27" t="n">
-        <v>1101.418528938179</v>
+        <v>1086.705911478075</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>252.6345665042409</v>
+        <v>252.6345665042398</v>
       </c>
       <c r="C28" t="n">
-        <v>212.9792725836772</v>
+        <v>212.9792725836763</v>
       </c>
       <c r="D28" t="n">
-        <v>189.868055029196</v>
+        <v>189.8680550291952</v>
       </c>
       <c r="E28" t="n">
-        <v>167.8197164082708</v>
+        <v>167.8197164082702</v>
       </c>
       <c r="F28" t="n">
-        <v>145.299737051804</v>
+        <v>145.2997370518035</v>
       </c>
       <c r="G28" t="n">
-        <v>106.34066403741</v>
+        <v>106.3406640374097</v>
       </c>
       <c r="H28" t="n">
-        <v>76.92869443443983</v>
+        <v>76.92869443443965</v>
       </c>
       <c r="I28" t="n">
-        <v>62.68632565487438</v>
+        <v>62.68632565487434</v>
       </c>
       <c r="J28" t="n">
-        <v>131.1986842898677</v>
+        <v>62.68632565487434</v>
       </c>
       <c r="K28" t="n">
-        <v>180.1414782028767</v>
+        <v>96.29051339951775</v>
       </c>
       <c r="L28" t="n">
-        <v>408.1230157760988</v>
+        <v>324.2720509727401</v>
       </c>
       <c r="M28" t="n">
-        <v>526.1165219037006</v>
+        <v>569.6400152733047</v>
       </c>
       <c r="N28" t="n">
-        <v>644.538863653301</v>
+        <v>734.142873572742</v>
       </c>
       <c r="O28" t="n">
-        <v>870.3769683219533</v>
+        <v>959.9809782413945</v>
       </c>
       <c r="P28" t="n">
-        <v>1060.719910223054</v>
+        <v>1150.323920142495</v>
       </c>
       <c r="Q28" t="n">
-        <v>1150.323920142497</v>
+        <v>1150.323920142495</v>
       </c>
       <c r="R28" t="n">
-        <v>1130.762814374631</v>
+        <v>1130.762814374629</v>
       </c>
       <c r="S28" t="n">
-        <v>1047.013727396075</v>
+        <v>1047.013727396073</v>
       </c>
       <c r="T28" t="n">
-        <v>943.7954498295101</v>
+        <v>943.7954498295082</v>
       </c>
       <c r="U28" t="n">
-        <v>786.5658859363659</v>
+        <v>786.5658859363642</v>
       </c>
       <c r="V28" t="n">
-        <v>655.7912571125446</v>
+        <v>655.791257112543</v>
       </c>
       <c r="W28" t="n">
-        <v>499.5955312476998</v>
+        <v>499.5955312476983</v>
       </c>
       <c r="X28" t="n">
-        <v>398.3037427608316</v>
+        <v>398.3037427608302</v>
       </c>
       <c r="Y28" t="n">
-        <v>306.2292595708647</v>
+        <v>306.2292595708635</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1638.398690093981</v>
+        <v>1638.398690093979</v>
       </c>
       <c r="C29" t="n">
-        <v>1386.425607044544</v>
+        <v>1386.425607044543</v>
       </c>
       <c r="D29" t="n">
-        <v>1143.562317889524</v>
+        <v>1143.562317889523</v>
       </c>
       <c r="E29" t="n">
-        <v>878.7372736133867</v>
+        <v>878.7372736133856</v>
       </c>
       <c r="F29" t="n">
-        <v>594.546758541313</v>
+        <v>594.5467585413121</v>
       </c>
       <c r="G29" t="n">
-        <v>308.403447613257</v>
+        <v>308.4034476132563</v>
       </c>
       <c r="H29" t="n">
-        <v>105.5428488283223</v>
+        <v>105.5428488283221</v>
       </c>
       <c r="I29" t="n">
-        <v>62.68632565487438</v>
+        <v>62.68632565487434</v>
       </c>
       <c r="J29" t="n">
-        <v>216.9651972767753</v>
+        <v>262.0593281006429</v>
       </c>
       <c r="K29" t="n">
-        <v>584.4800274945208</v>
+        <v>629.5741583183885</v>
       </c>
       <c r="L29" t="n">
-        <v>1059.73985875243</v>
+        <v>1104.833989576298</v>
       </c>
       <c r="M29" t="n">
-        <v>1580.35348317848</v>
+        <v>1625.447614002348</v>
       </c>
       <c r="N29" t="n">
-        <v>2086.059300039159</v>
+        <v>2131.153430863027</v>
       </c>
       <c r="O29" t="n">
-        <v>2518.438342684955</v>
+        <v>2563.532473508824</v>
       </c>
       <c r="P29" t="n">
-        <v>2873.969697313971</v>
+        <v>2912.509570884217</v>
       </c>
       <c r="Q29" t="n">
-        <v>3095.776409173471</v>
+        <v>3134.316282743717</v>
       </c>
       <c r="R29" t="n">
-        <v>3134.316282743719</v>
+        <v>3134.316282743717</v>
       </c>
       <c r="S29" t="n">
-        <v>3077.047982991829</v>
+        <v>3077.047982991827</v>
       </c>
       <c r="T29" t="n">
-        <v>2982.649712340596</v>
+        <v>2982.649712340594</v>
       </c>
       <c r="U29" t="n">
-        <v>2857.725051672346</v>
+        <v>2857.725051672345</v>
       </c>
       <c r="V29" t="n">
-        <v>2650.706453186044</v>
+        <v>2650.706453186042</v>
       </c>
       <c r="W29" t="n">
-        <v>2418.132198661401</v>
+        <v>2418.1321986614</v>
       </c>
       <c r="X29" t="n">
-        <v>2166.06273380065</v>
+        <v>2166.062733800649</v>
       </c>
       <c r="Y29" t="n">
-        <v>1902.481553994244</v>
+        <v>1902.481553994243</v>
       </c>
     </row>
     <row r="30">
@@ -6534,19 +6534,19 @@
         <v>231.0064684181153</v>
       </c>
       <c r="H30" t="n">
-        <v>131.0686109648134</v>
+        <v>131.0686109648133</v>
       </c>
       <c r="I30" t="n">
-        <v>62.68632565487438</v>
+        <v>62.68632565487434</v>
       </c>
       <c r="J30" t="n">
         <v>122.9404721879805</v>
       </c>
       <c r="K30" t="n">
-        <v>352.4310247481692</v>
+        <v>352.4310247481691</v>
       </c>
       <c r="L30" t="n">
-        <v>718.2528699182849</v>
+        <v>718.2528699182848</v>
       </c>
       <c r="M30" t="n">
         <v>1203.286223428511</v>
@@ -6564,13 +6564,13 @@
         <v>2566.619369397076</v>
       </c>
       <c r="R30" t="n">
-        <v>2521.547717952126</v>
+        <v>2506.835100492021</v>
       </c>
       <c r="S30" t="n">
-        <v>2368.748230964866</v>
+        <v>2354.035613504762</v>
       </c>
       <c r="T30" t="n">
-        <v>2180.063127130852</v>
+        <v>2165.350509670747</v>
       </c>
       <c r="U30" t="n">
         <v>1961.568334729162</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>252.6345665042409</v>
+        <v>252.6345665042394</v>
       </c>
       <c r="C31" t="n">
-        <v>212.9792725836772</v>
+        <v>212.9792725836759</v>
       </c>
       <c r="D31" t="n">
-        <v>189.868055029196</v>
+        <v>189.8680550291949</v>
       </c>
       <c r="E31" t="n">
-        <v>167.8197164082708</v>
+        <v>167.81971640827</v>
       </c>
       <c r="F31" t="n">
-        <v>145.299737051804</v>
+        <v>145.2997370518033</v>
       </c>
       <c r="G31" t="n">
-        <v>106.34066403741</v>
+        <v>106.3406640374095</v>
       </c>
       <c r="H31" t="n">
-        <v>76.92869443443983</v>
+        <v>76.92869443443959</v>
       </c>
       <c r="I31" t="n">
-        <v>62.68632565487438</v>
+        <v>62.68632565487434</v>
       </c>
       <c r="J31" t="n">
-        <v>131.1986842898677</v>
+        <v>131.1986842898679</v>
       </c>
       <c r="K31" t="n">
-        <v>292.1773302074738</v>
+        <v>292.1773302074741</v>
       </c>
       <c r="L31" t="n">
-        <v>520.158867780696</v>
+        <v>520.1588677806965</v>
       </c>
       <c r="M31" t="n">
-        <v>765.5268320812604</v>
+        <v>638.1523739082982</v>
       </c>
       <c r="N31" t="n">
-        <v>899.2877799992264</v>
+        <v>883.9491738308614</v>
       </c>
       <c r="O31" t="n">
-        <v>997.751426494916</v>
+        <v>997.7514264949126</v>
       </c>
       <c r="P31" t="n">
-        <v>1060.719910223054</v>
+        <v>1060.71991022305</v>
       </c>
       <c r="Q31" t="n">
-        <v>1150.323920142497</v>
+        <v>1150.323920142494</v>
       </c>
       <c r="R31" t="n">
-        <v>1130.762814374631</v>
+        <v>1130.762814374629</v>
       </c>
       <c r="S31" t="n">
-        <v>1047.013727396075</v>
+        <v>1047.013727396072</v>
       </c>
       <c r="T31" t="n">
-        <v>943.7954498295101</v>
+        <v>943.7954498295073</v>
       </c>
       <c r="U31" t="n">
-        <v>786.5658859363659</v>
+        <v>786.5658859363634</v>
       </c>
       <c r="V31" t="n">
-        <v>655.7912571125446</v>
+        <v>655.7912571125423</v>
       </c>
       <c r="W31" t="n">
-        <v>499.5955312476998</v>
+        <v>499.5955312476977</v>
       </c>
       <c r="X31" t="n">
-        <v>398.3037427608316</v>
+        <v>398.3037427608297</v>
       </c>
       <c r="Y31" t="n">
-        <v>306.2292595708647</v>
+        <v>306.229259570863</v>
       </c>
     </row>
     <row r="32">
@@ -6674,52 +6674,52 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1578.511661732583</v>
+        <v>1578.511661732584</v>
       </c>
       <c r="C32" t="n">
-        <v>1334.73540658736</v>
+        <v>1334.735406587361</v>
       </c>
       <c r="D32" t="n">
         <v>1100.068945336554</v>
       </c>
       <c r="E32" t="n">
-        <v>843.4407289646301</v>
+        <v>843.4407289646304</v>
       </c>
       <c r="F32" t="n">
-        <v>567.44704179677</v>
+        <v>567.4470417967702</v>
       </c>
       <c r="G32" t="n">
-        <v>289.5005587729277</v>
+        <v>289.5005587729278</v>
       </c>
       <c r="H32" t="n">
-        <v>94.83678789220662</v>
+        <v>94.83678789220667</v>
       </c>
       <c r="I32" t="n">
-        <v>60.17709262297226</v>
+        <v>60.17709262297227</v>
       </c>
       <c r="J32" t="n">
-        <v>132.1756368957779</v>
+        <v>267.5838060976603</v>
       </c>
       <c r="K32" t="n">
-        <v>507.7241781424431</v>
+        <v>643.1323473443254</v>
       </c>
       <c r="L32" t="n">
-        <v>991.0177204292718</v>
+        <v>1126.425889631154</v>
       </c>
       <c r="M32" t="n">
-        <v>1519.665055884242</v>
+        <v>1596.705030239826</v>
       </c>
       <c r="N32" t="n">
-        <v>2033.40458377384</v>
+        <v>2110.444558129424</v>
       </c>
       <c r="O32" t="n">
-        <v>2473.817337448557</v>
+        <v>2550.857311804141</v>
       </c>
       <c r="P32" t="n">
-        <v>2837.382403106492</v>
+        <v>2914.422377462076</v>
       </c>
       <c r="Q32" t="n">
-        <v>2962.281046549444</v>
+        <v>3008.854631148613</v>
       </c>
       <c r="R32" t="n">
         <v>3008.854631148613</v>
@@ -6728,22 +6728,22 @@
         <v>2959.783159300937</v>
       </c>
       <c r="T32" t="n">
-        <v>2873.581716553917</v>
+        <v>2873.581716553918</v>
       </c>
       <c r="U32" t="n">
-        <v>2756.853883789881</v>
+        <v>2756.853883789882</v>
       </c>
       <c r="V32" t="n">
         <v>2558.032113207792</v>
       </c>
       <c r="W32" t="n">
-        <v>2333.654686587362</v>
+        <v>2333.654686587363</v>
       </c>
       <c r="X32" t="n">
-        <v>2089.782049630825</v>
+        <v>2089.782049630826</v>
       </c>
       <c r="Y32" t="n">
-        <v>1834.397697728632</v>
+        <v>1834.397697728634</v>
       </c>
     </row>
     <row r="33">
@@ -6774,7 +6774,7 @@
         <v>128.5593779329113</v>
       </c>
       <c r="I33" t="n">
-        <v>60.17709262297226</v>
+        <v>60.17709262297227</v>
       </c>
       <c r="J33" t="n">
         <v>120.4312391560784</v>
@@ -6801,7 +6801,7 @@
         <v>2564.110136365174</v>
       </c>
       <c r="R33" t="n">
-        <v>2519.038484920224</v>
+        <v>2504.325867460119</v>
       </c>
       <c r="S33" t="n">
         <v>2366.238997932964</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>192.7475381428434</v>
+        <v>192.7475381428439</v>
       </c>
       <c r="C34" t="n">
-        <v>161.2890721264934</v>
+        <v>161.2890721264937</v>
       </c>
       <c r="D34" t="n">
-        <v>146.3746824762258</v>
+        <v>146.3746824762261</v>
       </c>
       <c r="E34" t="n">
-        <v>132.5231717595142</v>
+        <v>132.5231717595145</v>
       </c>
       <c r="F34" t="n">
-        <v>118.200020307261</v>
+        <v>118.2000203072612</v>
       </c>
       <c r="G34" t="n">
-        <v>87.43777519708064</v>
+        <v>87.43777519708077</v>
       </c>
       <c r="H34" t="n">
-        <v>66.2226334983241</v>
+        <v>66.22263349832417</v>
       </c>
       <c r="I34" t="n">
-        <v>60.17709262297226</v>
+        <v>60.17709262297227</v>
       </c>
       <c r="J34" t="n">
-        <v>136.7231622868854</v>
+        <v>60.17709262297227</v>
       </c>
       <c r="K34" t="n">
-        <v>305.7355192334112</v>
+        <v>93.78128036761568</v>
       </c>
       <c r="L34" t="n">
-        <v>541.7507678355531</v>
+        <v>194.3883597678752</v>
       </c>
       <c r="M34" t="n">
-        <v>659.7442739631548</v>
+        <v>312.3818658954769</v>
       </c>
       <c r="N34" t="n">
-        <v>855.2333104193502</v>
+        <v>486.7792510672233</v>
       </c>
       <c r="O34" t="n">
-        <v>953.6969569150399</v>
+        <v>720.6510667647954</v>
       </c>
       <c r="P34" t="n">
-        <v>1016.665440643178</v>
+        <v>919.0277196948155</v>
       </c>
       <c r="Q34" t="n">
         <v>1016.665440643178</v>
       </c>
       <c r="R34" t="n">
-        <v>1005.301162779525</v>
+        <v>1005.301162779526</v>
       </c>
       <c r="S34" t="n">
-        <v>929.7489037051827</v>
+        <v>929.7489037051835</v>
       </c>
       <c r="T34" t="n">
-        <v>834.7274540428311</v>
+        <v>834.7274540428319</v>
       </c>
       <c r="U34" t="n">
-        <v>685.6947180539006</v>
+        <v>685.6947180539014</v>
       </c>
       <c r="V34" t="n">
-        <v>563.1169171342929</v>
+        <v>563.1169171342935</v>
       </c>
       <c r="W34" t="n">
-        <v>415.1180191736615</v>
+        <v>415.1180191736622</v>
       </c>
       <c r="X34" t="n">
-        <v>322.0230585910069</v>
+        <v>322.0230585910075</v>
       </c>
       <c r="Y34" t="n">
-        <v>238.1454033052536</v>
+        <v>238.1454033052541</v>
       </c>
     </row>
     <row r="35">
@@ -6929,37 +6929,37 @@
         <v>221.1248745409162</v>
       </c>
       <c r="H35" t="n">
-        <v>56.11073664575747</v>
+        <v>56.11073664575748</v>
       </c>
       <c r="I35" t="n">
         <v>51.10067436208575</v>
       </c>
       <c r="J35" t="n">
-        <v>287.5669931259238</v>
+        <v>123.0992186348914</v>
       </c>
       <c r="K35" t="n">
-        <v>692.175139661739</v>
+        <v>363.2395906796742</v>
       </c>
       <c r="L35" t="n">
-        <v>1080.236268659741</v>
+        <v>711.1249637646204</v>
       </c>
       <c r="M35" t="n">
-        <v>1473.475434912829</v>
+        <v>1144.539885930765</v>
       </c>
       <c r="N35" t="n">
-        <v>1851.806793600545</v>
+        <v>1522.871244618481</v>
       </c>
       <c r="O35" t="n">
-        <v>2156.811378073379</v>
+        <v>1992.343603582347</v>
       </c>
       <c r="P35" t="n">
-        <v>2384.968274529432</v>
+        <v>2220.5005000384</v>
       </c>
       <c r="Q35" t="n">
-        <v>2479.400528215969</v>
+        <v>2479.40052821597</v>
       </c>
       <c r="R35" t="n">
-        <v>2555.033718104287</v>
+        <v>2555.033718104288</v>
       </c>
       <c r="S35" t="n">
         <v>2535.611879242174</v>
@@ -6968,7 +6968,7 @@
         <v>2479.060069480718</v>
       </c>
       <c r="U35" t="n">
-        <v>2391.981869702244</v>
+        <v>2391.981869702243</v>
       </c>
       <c r="V35" t="n">
         <v>2222.809732105717</v>
@@ -6990,10 +6990,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>930.4134348641297</v>
+        <v>915.7008174040254</v>
       </c>
       <c r="C36" t="n">
-        <v>768.7097621050845</v>
+        <v>753.9971446449802</v>
       </c>
       <c r="D36" t="n">
         <v>629.8711250952965</v>
@@ -7008,7 +7008,7 @@
         <v>219.4208171253267</v>
       </c>
       <c r="H36" t="n">
-        <v>119.4829596720247</v>
+        <v>119.4829596720248</v>
       </c>
       <c r="I36" t="n">
         <v>51.10067436208575</v>
@@ -7038,28 +7038,28 @@
         <v>2555.033718104287</v>
       </c>
       <c r="R36" t="n">
-        <v>2509.962066659337</v>
+        <v>2495.249449199233</v>
       </c>
       <c r="S36" t="n">
-        <v>2357.162579672078</v>
+        <v>2342.449962211973</v>
       </c>
       <c r="T36" t="n">
-        <v>2168.477475838063</v>
+        <v>2153.764858377959</v>
       </c>
       <c r="U36" t="n">
-        <v>1949.982683436373</v>
+        <v>1935.270065976269</v>
       </c>
       <c r="V36" t="n">
-        <v>1721.587060884707</v>
+        <v>1706.874443424603</v>
       </c>
       <c r="W36" t="n">
-        <v>1480.271192118017</v>
+        <v>1465.558574657913</v>
       </c>
       <c r="X36" t="n">
-        <v>1282.354203995812</v>
+        <v>1267.641586535707</v>
       </c>
       <c r="Y36" t="n">
-        <v>1089.832877645391</v>
+        <v>1075.120260185286</v>
       </c>
     </row>
     <row r="37">
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>54.02211951749091</v>
+        <v>54.02211951749092</v>
       </c>
       <c r="C37" t="n">
-        <v>52.21328648670347</v>
+        <v>52.21328648670348</v>
       </c>
       <c r="D37" t="n">
-        <v>52.21328648670347</v>
+        <v>52.21328648670348</v>
       </c>
       <c r="E37" t="n">
-        <v>52.21328648670347</v>
+        <v>52.21328648670348</v>
       </c>
       <c r="F37" t="n">
-        <v>52.21328648670347</v>
+        <v>52.21328648670348</v>
       </c>
       <c r="G37" t="n">
         <v>51.10067436208575</v>
@@ -7105,16 +7105,16 @@
         <v>303.3054476345904</v>
       </c>
       <c r="N37" t="n">
-        <v>421.7277893841908</v>
+        <v>467.9465500458442</v>
       </c>
       <c r="O37" t="n">
-        <v>520.1914358798805</v>
+        <v>566.4101965415339</v>
       </c>
       <c r="P37" t="n">
-        <v>583.1599196080183</v>
+        <v>629.3786802696717</v>
       </c>
       <c r="Q37" t="n">
-        <v>611.4572037146872</v>
+        <v>629.3786802696717</v>
       </c>
       <c r="R37" t="n">
         <v>629.3786802696717</v>
@@ -7169,7 +7169,7 @@
         <v>56.11073664575746</v>
       </c>
       <c r="I38" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="J38" t="n">
         <v>123.0992186348914</v>
@@ -7178,22 +7178,22 @@
         <v>363.2395906796742</v>
       </c>
       <c r="L38" t="n">
-        <v>711.1249637646204</v>
+        <v>826.9339095659946</v>
       </c>
       <c r="M38" t="n">
-        <v>1104.364130017708</v>
+        <v>1220.173075819082</v>
       </c>
       <c r="N38" t="n">
-        <v>1482.695488705424</v>
+        <v>1762.97220899783</v>
       </c>
       <c r="O38" t="n">
-        <v>1827.875829091314</v>
+        <v>2067.976793470664</v>
       </c>
       <c r="P38" t="n">
-        <v>2220.500500038399</v>
+        <v>2460.60146441775</v>
       </c>
       <c r="Q38" t="n">
-        <v>2479.400528215969</v>
+        <v>2555.033718104287</v>
       </c>
       <c r="R38" t="n">
         <v>2555.033718104287</v>
@@ -7227,19 +7227,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>930.4134348641297</v>
+        <v>915.7008174040254</v>
       </c>
       <c r="C39" t="n">
-        <v>768.7097621050845</v>
+        <v>753.9971446449802</v>
       </c>
       <c r="D39" t="n">
-        <v>629.8711250952965</v>
+        <v>615.1585076351922</v>
       </c>
       <c r="E39" t="n">
-        <v>482.8431151521678</v>
+        <v>468.1304976920634</v>
       </c>
       <c r="F39" t="n">
-        <v>348.1493171020421</v>
+        <v>333.4366996419378</v>
       </c>
       <c r="G39" t="n">
         <v>219.4208171253267</v>
@@ -7248,13 +7248,13 @@
         <v>119.4829596720247</v>
       </c>
       <c r="I39" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="J39" t="n">
         <v>111.3548208951919</v>
       </c>
       <c r="K39" t="n">
-        <v>340.8453734553806</v>
+        <v>340.8453734553805</v>
       </c>
       <c r="L39" t="n">
         <v>706.6672186254962</v>
@@ -7275,28 +7275,28 @@
         <v>2555.033718104287</v>
       </c>
       <c r="R39" t="n">
-        <v>2509.962066659337</v>
+        <v>2495.249449199233</v>
       </c>
       <c r="S39" t="n">
-        <v>2357.162579672078</v>
+        <v>2342.449962211973</v>
       </c>
       <c r="T39" t="n">
-        <v>2168.477475838063</v>
+        <v>2153.764858377959</v>
       </c>
       <c r="U39" t="n">
-        <v>1949.982683436373</v>
+        <v>1935.270065976269</v>
       </c>
       <c r="V39" t="n">
-        <v>1721.587060884707</v>
+        <v>1706.874443424603</v>
       </c>
       <c r="W39" t="n">
-        <v>1480.271192118017</v>
+        <v>1465.558574657913</v>
       </c>
       <c r="X39" t="n">
-        <v>1282.354203995812</v>
+        <v>1267.641586535707</v>
       </c>
       <c r="Y39" t="n">
-        <v>1089.832877645391</v>
+        <v>1075.120260185286</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>52.90950739287318</v>
+        <v>54.02211951749089</v>
       </c>
       <c r="C40" t="n">
-        <v>51.10067436208574</v>
+        <v>52.21328648670345</v>
       </c>
       <c r="D40" t="n">
-        <v>58.54756592704302</v>
+        <v>52.21328648670345</v>
       </c>
       <c r="E40" t="n">
-        <v>74.031305562744</v>
+        <v>52.21328648670345</v>
       </c>
       <c r="F40" t="n">
-        <v>89.05279011354052</v>
+        <v>52.21328648670345</v>
       </c>
       <c r="G40" t="n">
-        <v>87.9401779889228</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="H40" t="n">
-        <v>96.20682289912145</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="I40" t="n">
-        <v>96.20682289912145</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="J40" t="n">
-        <v>96.20682289912145</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="K40" t="n">
-        <v>129.8110106437649</v>
+        <v>84.70486210672914</v>
       </c>
       <c r="L40" t="n">
-        <v>230.4180900440244</v>
+        <v>185.3119415069887</v>
       </c>
       <c r="M40" t="n">
-        <v>348.4115961716261</v>
+        <v>303.3054476345904</v>
       </c>
       <c r="N40" t="n">
-        <v>466.8339379212265</v>
+        <v>421.7277893841908</v>
       </c>
       <c r="O40" t="n">
-        <v>565.2975844169162</v>
+        <v>520.1914358798805</v>
       </c>
       <c r="P40" t="n">
-        <v>628.266068145054</v>
+        <v>629.3786802696717</v>
       </c>
       <c r="Q40" t="n">
-        <v>628.266068145054</v>
+        <v>629.3786802696717</v>
       </c>
       <c r="R40" t="n">
-        <v>628.266068145054</v>
+        <v>629.3786802696717</v>
       </c>
       <c r="S40" t="n">
-        <v>582.3634420562738</v>
+        <v>583.4760541808915</v>
       </c>
       <c r="T40" t="n">
-        <v>516.991625379485</v>
+        <v>518.1042375041027</v>
       </c>
       <c r="U40" t="n">
-        <v>397.6085223761172</v>
+        <v>398.7211345007348</v>
       </c>
       <c r="V40" t="n">
-        <v>304.680354442072</v>
+        <v>305.7929665666896</v>
       </c>
       <c r="W40" t="n">
-        <v>186.3310894670034</v>
+        <v>187.443701591621</v>
       </c>
       <c r="X40" t="n">
-        <v>122.8857618699114</v>
+        <v>123.9983739945291</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.65773956972075</v>
+        <v>69.77035169433844</v>
       </c>
     </row>
     <row r="41">
@@ -7391,46 +7391,46 @@
         <v>1147.761190413098</v>
       </c>
       <c r="D41" t="n">
-        <v>942.7443621478541</v>
+        <v>942.744362147854</v>
       </c>
       <c r="E41" t="n">
-        <v>715.7657787614932</v>
+        <v>715.765778761493</v>
       </c>
       <c r="F41" t="n">
-        <v>469.4217245791958</v>
+        <v>469.4217245791957</v>
       </c>
       <c r="G41" t="n">
-        <v>221.124874540916</v>
+        <v>221.1248745409159</v>
       </c>
       <c r="H41" t="n">
-        <v>56.11073664575748</v>
+        <v>56.11073664575746</v>
       </c>
       <c r="I41" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J41" t="n">
-        <v>287.5669931259237</v>
+        <v>123.0992186348914</v>
       </c>
       <c r="K41" t="n">
-        <v>527.7073651707065</v>
+        <v>527.7073651707066</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.060512746685</v>
+        <v>875.5927382556529</v>
       </c>
       <c r="M41" t="n">
-        <v>1433.299678999773</v>
+        <v>1268.831904508741</v>
       </c>
       <c r="N41" t="n">
-        <v>1811.631037687489</v>
+        <v>1762.97220899783</v>
       </c>
       <c r="O41" t="n">
-        <v>2156.811378073378</v>
+        <v>2067.976793470664</v>
       </c>
       <c r="P41" t="n">
-        <v>2384.968274529432</v>
+        <v>2296.133689926718</v>
       </c>
       <c r="Q41" t="n">
-        <v>2479.400528215969</v>
+        <v>2555.033718104287</v>
       </c>
       <c r="R41" t="n">
         <v>2555.033718104287</v>
@@ -7454,7 +7454,7 @@
         <v>1813.858934499875</v>
       </c>
       <c r="Y41" t="n">
-        <v>1588.124215583246</v>
+        <v>1588.124215583245</v>
       </c>
     </row>
     <row r="42">
@@ -7464,19 +7464,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>930.4134348641297</v>
+        <v>915.7008174040254</v>
       </c>
       <c r="C42" t="n">
-        <v>768.7097621050845</v>
+        <v>753.9971446449802</v>
       </c>
       <c r="D42" t="n">
-        <v>629.8711250952965</v>
+        <v>615.1585076351922</v>
       </c>
       <c r="E42" t="n">
-        <v>482.8431151521678</v>
+        <v>468.1304976920634</v>
       </c>
       <c r="F42" t="n">
-        <v>348.1493171020421</v>
+        <v>333.4366996419378</v>
       </c>
       <c r="G42" t="n">
         <v>219.4208171253267</v>
@@ -7485,13 +7485,13 @@
         <v>119.4829596720247</v>
       </c>
       <c r="I42" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J42" t="n">
         <v>111.3548208951919</v>
       </c>
       <c r="K42" t="n">
-        <v>340.8453734553805</v>
+        <v>340.8453734553806</v>
       </c>
       <c r="L42" t="n">
         <v>706.6672186254962</v>
@@ -7512,28 +7512,28 @@
         <v>2555.033718104287</v>
       </c>
       <c r="R42" t="n">
-        <v>2509.962066659337</v>
+        <v>2495.249449199233</v>
       </c>
       <c r="S42" t="n">
-        <v>2357.162579672078</v>
+        <v>2342.449962211973</v>
       </c>
       <c r="T42" t="n">
-        <v>2168.477475838063</v>
+        <v>2153.764858377959</v>
       </c>
       <c r="U42" t="n">
-        <v>1949.982683436373</v>
+        <v>1935.270065976269</v>
       </c>
       <c r="V42" t="n">
-        <v>1721.587060884707</v>
+        <v>1706.874443424603</v>
       </c>
       <c r="W42" t="n">
-        <v>1480.271192118017</v>
+        <v>1465.558574657913</v>
       </c>
       <c r="X42" t="n">
-        <v>1282.354203995812</v>
+        <v>1267.641586535707</v>
       </c>
       <c r="Y42" t="n">
-        <v>1089.832877645391</v>
+        <v>1075.120260185286</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>54.02211951749095</v>
+        <v>54.02211951749091</v>
       </c>
       <c r="C43" t="n">
-        <v>52.21328648670348</v>
+        <v>52.21328648670347</v>
       </c>
       <c r="D43" t="n">
-        <v>52.21328648670348</v>
+        <v>52.21328648670347</v>
       </c>
       <c r="E43" t="n">
-        <v>52.21328648670348</v>
+        <v>52.21328648670347</v>
       </c>
       <c r="F43" t="n">
-        <v>52.21328648670348</v>
+        <v>52.21328648670347</v>
       </c>
       <c r="G43" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="H43" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="I43" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J43" t="n">
-        <v>79.39795846875508</v>
+        <v>97.31943502373917</v>
       </c>
       <c r="K43" t="n">
-        <v>113.0021462133985</v>
+        <v>130.9236227683826</v>
       </c>
       <c r="L43" t="n">
-        <v>213.609225613658</v>
+        <v>231.5307021686421</v>
       </c>
       <c r="M43" t="n">
-        <v>331.6027317412597</v>
+        <v>349.5242082962438</v>
       </c>
       <c r="N43" t="n">
-        <v>450.0250734908601</v>
+        <v>467.9465500458442</v>
       </c>
       <c r="O43" t="n">
-        <v>548.4887199865498</v>
+        <v>566.4101965415339</v>
       </c>
       <c r="P43" t="n">
-        <v>611.4572037146876</v>
+        <v>629.3786802696717</v>
       </c>
       <c r="Q43" t="n">
-        <v>611.4572037146876</v>
+        <v>629.3786802696717</v>
       </c>
       <c r="R43" t="n">
-        <v>629.378680269672</v>
+        <v>629.3786802696717</v>
       </c>
       <c r="S43" t="n">
-        <v>583.4760541808919</v>
+        <v>583.4760541808915</v>
       </c>
       <c r="T43" t="n">
-        <v>518.1042375041029</v>
+        <v>518.1042375041027</v>
       </c>
       <c r="U43" t="n">
-        <v>398.721134500735</v>
+        <v>398.7211345007349</v>
       </c>
       <c r="V43" t="n">
-        <v>305.7929665666899</v>
+        <v>305.7929665666898</v>
       </c>
       <c r="W43" t="n">
-        <v>187.4437015916212</v>
+        <v>187.4437015916211</v>
       </c>
       <c r="X43" t="n">
-        <v>123.9983739945292</v>
+        <v>123.9983739945291</v>
       </c>
       <c r="Y43" t="n">
-        <v>69.77035169433853</v>
+        <v>69.77035169433847</v>
       </c>
     </row>
     <row r="44">
@@ -7628,46 +7628,46 @@
         <v>1147.761190413098</v>
       </c>
       <c r="D44" t="n">
-        <v>942.7443621478542</v>
+        <v>942.744362147854</v>
       </c>
       <c r="E44" t="n">
-        <v>715.7657787614933</v>
+        <v>715.765778761493</v>
       </c>
       <c r="F44" t="n">
-        <v>469.4217245791958</v>
+        <v>469.4217245791957</v>
       </c>
       <c r="G44" t="n">
-        <v>221.124874540916</v>
+        <v>221.1248745409159</v>
       </c>
       <c r="H44" t="n">
-        <v>56.11073664575749</v>
+        <v>56.11073664575746</v>
       </c>
       <c r="I44" t="n">
         <v>51.10067436208574</v>
       </c>
       <c r="J44" t="n">
-        <v>287.5669931259237</v>
+        <v>123.0992186348914</v>
       </c>
       <c r="K44" t="n">
-        <v>692.1751396617389</v>
+        <v>363.2395906796742</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.060512746685</v>
+        <v>711.1249637646204</v>
       </c>
       <c r="M44" t="n">
-        <v>1473.475434912829</v>
+        <v>1268.831904508741</v>
       </c>
       <c r="N44" t="n">
-        <v>1851.806793600545</v>
+        <v>1762.97220899783</v>
       </c>
       <c r="O44" t="n">
-        <v>2156.811378073378</v>
+        <v>2067.976793470664</v>
       </c>
       <c r="P44" t="n">
-        <v>2384.968274529432</v>
+        <v>2296.133689926718</v>
       </c>
       <c r="Q44" t="n">
-        <v>2479.400528215969</v>
+        <v>2555.033718104287</v>
       </c>
       <c r="R44" t="n">
         <v>2555.033718104287</v>
@@ -7731,7 +7731,7 @@
         <v>340.8453734553806</v>
       </c>
       <c r="L45" t="n">
-        <v>706.6672186254963</v>
+        <v>706.6672186254962</v>
       </c>
       <c r="M45" t="n">
         <v>1191.700572135723</v>
@@ -7749,16 +7749,16 @@
         <v>2555.033718104287</v>
       </c>
       <c r="R45" t="n">
-        <v>2509.962066659337</v>
+        <v>2495.249449199232</v>
       </c>
       <c r="S45" t="n">
-        <v>2357.162579672078</v>
+        <v>2342.449962211973</v>
       </c>
       <c r="T45" t="n">
-        <v>2168.477475838063</v>
+        <v>2153.764858377958</v>
       </c>
       <c r="U45" t="n">
-        <v>1949.982683436373</v>
+        <v>1935.270065976268</v>
       </c>
       <c r="V45" t="n">
         <v>1721.587060884707</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>54.02211951749096</v>
+        <v>52.90950739287318</v>
       </c>
       <c r="C46" t="n">
-        <v>52.2132864867035</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="D46" t="n">
-        <v>52.2132864867035</v>
+        <v>65.54268635500837</v>
       </c>
       <c r="E46" t="n">
-        <v>52.2132864867035</v>
+        <v>65.54268635500837</v>
       </c>
       <c r="F46" t="n">
-        <v>52.2132864867035</v>
+        <v>65.54268635500837</v>
       </c>
       <c r="G46" t="n">
-        <v>51.10067436208574</v>
+        <v>64.43007423039064</v>
       </c>
       <c r="H46" t="n">
-        <v>51.10067436208574</v>
+        <v>64.43007423039064</v>
       </c>
       <c r="I46" t="n">
-        <v>74.23504503930332</v>
+        <v>64.43007423039064</v>
       </c>
       <c r="J46" t="n">
-        <v>97.31943502373952</v>
+        <v>64.43007423039064</v>
       </c>
       <c r="K46" t="n">
-        <v>130.9236227683829</v>
+        <v>98.03426197503406</v>
       </c>
       <c r="L46" t="n">
-        <v>231.5307021686424</v>
+        <v>198.6413413752936</v>
       </c>
       <c r="M46" t="n">
-        <v>349.5242082962442</v>
+        <v>316.6348475028953</v>
       </c>
       <c r="N46" t="n">
-        <v>467.9465500458446</v>
+        <v>435.0571892524957</v>
       </c>
       <c r="O46" t="n">
-        <v>566.4101965415342</v>
+        <v>533.5208357481854</v>
       </c>
       <c r="P46" t="n">
-        <v>629.378680269672</v>
+        <v>628.266068145054</v>
       </c>
       <c r="Q46" t="n">
-        <v>629.378680269672</v>
+        <v>628.266068145054</v>
       </c>
       <c r="R46" t="n">
-        <v>629.378680269672</v>
+        <v>628.266068145054</v>
       </c>
       <c r="S46" t="n">
-        <v>583.4760541808919</v>
+        <v>582.3634420562738</v>
       </c>
       <c r="T46" t="n">
-        <v>518.1042375041029</v>
+        <v>516.991625379485</v>
       </c>
       <c r="U46" t="n">
-        <v>398.721134500735</v>
+        <v>397.6085223761172</v>
       </c>
       <c r="V46" t="n">
-        <v>305.7929665666899</v>
+        <v>304.680354442072</v>
       </c>
       <c r="W46" t="n">
-        <v>187.4437015916212</v>
+        <v>186.3310894670034</v>
       </c>
       <c r="X46" t="n">
-        <v>123.9983739945292</v>
+        <v>122.8857618699114</v>
       </c>
       <c r="Y46" t="n">
-        <v>69.77035169433856</v>
+        <v>68.65773956972075</v>
       </c>
     </row>
   </sheetData>
@@ -7979,7 +7979,7 @@
         <v>147.0997974279326</v>
       </c>
       <c r="K2" t="n">
-        <v>369.920476453223</v>
+        <v>421.3890363425141</v>
       </c>
       <c r="L2" t="n">
         <v>542.9595789155856</v>
@@ -7994,7 +7994,7 @@
         <v>495.0402356415689</v>
       </c>
       <c r="P2" t="n">
-        <v>418.3383206229274</v>
+        <v>366.8697607336387</v>
       </c>
       <c r="Q2" t="n">
         <v>276.0094878578761</v>
@@ -8067,7 +8067,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N3" t="n">
-        <v>342.3852742695003</v>
+        <v>342.3852742695025</v>
       </c>
       <c r="O3" t="n">
         <v>512.0210150597484</v>
@@ -8213,7 +8213,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>219.8255997236959</v>
+        <v>147.0997974279326</v>
       </c>
       <c r="K5" t="n">
         <v>421.3890363425141</v>
@@ -8228,10 +8228,10 @@
         <v>568.5510017355793</v>
       </c>
       <c r="O5" t="n">
-        <v>495.0402356415689</v>
+        <v>443.57167575228</v>
       </c>
       <c r="P5" t="n">
-        <v>294.1439584378728</v>
+        <v>418.3383206229274</v>
       </c>
       <c r="Q5" t="n">
         <v>276.0094878578761</v>
@@ -8301,16 +8301,16 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M6" t="n">
-        <v>548.4153028512413</v>
+        <v>359.6249076928043</v>
       </c>
       <c r="N6" t="n">
-        <v>106.7151410677083</v>
+        <v>600.6529294339227</v>
       </c>
       <c r="O6" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P6" t="n">
-        <v>414.0015992319183</v>
+        <v>108.8542060241433</v>
       </c>
       <c r="Q6" t="n">
         <v>273.1004740566038</v>
@@ -8529,16 +8529,16 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J9" t="n">
-        <v>163.9183459425315</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K9" t="n">
         <v>343.8048081163522</v>
       </c>
       <c r="L9" t="n">
-        <v>482.0924488944969</v>
+        <v>398.8657529605211</v>
       </c>
       <c r="M9" t="n">
-        <v>315.5450020690959</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N9" t="n">
         <v>623.1450866466196</v>
@@ -8547,10 +8547,10 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P9" t="n">
-        <v>414.0015992319183</v>
+        <v>108.8542060241433</v>
       </c>
       <c r="Q9" t="n">
-        <v>113.7351914448925</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R9" t="n">
         <v>59.17817075471706</v>
@@ -8766,7 +8766,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J12" t="n">
-        <v>163.9183459425316</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K12" t="n">
         <v>343.8048081163522</v>
@@ -8787,7 +8787,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q12" t="n">
-        <v>273.1004740566038</v>
+        <v>273.1004740566032</v>
       </c>
       <c r="R12" t="n">
         <v>59.17817075471706</v>
@@ -9261,7 +9261,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q18" t="n">
-        <v>273.1004740566038</v>
+        <v>273.1004740566032</v>
       </c>
       <c r="R18" t="n">
         <v>59.17817075471706</v>
@@ -9498,7 +9498,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q21" t="n">
-        <v>273.1004740566038</v>
+        <v>273.1004740566032</v>
       </c>
       <c r="R21" t="n">
         <v>59.17817075471706</v>
@@ -9714,7 +9714,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J24" t="n">
-        <v>163.9183459425316</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K24" t="n">
         <v>343.8048081163522</v>
@@ -9732,7 +9732,7 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P24" t="n">
-        <v>414.0015992319183</v>
+        <v>414.0015992319174</v>
       </c>
       <c r="Q24" t="n">
         <v>273.1004740566038</v>
@@ -11379,7 +11379,7 @@
         <v>343.8048081163522</v>
       </c>
       <c r="L45" t="n">
-        <v>482.092448894497</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M45" t="n">
         <v>605.4165828749999</v>
@@ -23258,10 +23258,10 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>286.2199636654877</v>
       </c>
       <c r="D11" t="n">
-        <v>239.279017490485</v>
+        <v>277.2012677100157</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23270,13 +23270,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>320.0484892653209</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>6.366267678352316</v>
       </c>
       <c r="I11" t="n">
-        <v>79.194569388259</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,22 +23306,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>93.4622282009166</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>130.220899391266</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>241.7150239479851</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>267.015123425942</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>286.3153816586886</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>76.02535242790356</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>58.59446668126139</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>59.0613910094477</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>75.33609373079551</v>
       </c>
       <c r="H13" t="n">
-        <v>65.88446135348596</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>50.86655653831528</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>56.13210615673259</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>119.6782075553163</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23476,13 +23476,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>191.4003800527419</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>62.46245798294568</v>
+        <v>137.045482048545</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>74.37006347808008</v>
       </c>
     </row>
     <row r="14">
@@ -23498,22 +23498,22 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>277.2012677100157</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>318.1152213678984</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>15.5958898983023</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>79.19456938825903</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,25 +23543,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>93.46222820091663</v>
+        <v>93.46222820091666</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>130.220899391266</v>
       </c>
       <c r="U14" t="n">
-        <v>160.4420255081129</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>241.7150239479851</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>267.0151234259421</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>286.3153816586887</v>
       </c>
       <c r="Y14" t="n">
-        <v>264.2983731244158</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>89.82535758250307</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>76.02535242790356</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>58.59446668126139</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>59.0613910094477</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>75.33609373079554</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>65.88446135348596</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>32.56928056565536</v>
+        <v>50.86655653831534</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,16 +23698,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>56.13210615673262</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>119.6782075553164</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>22.53951590878336</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>192.4238797007582</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>127.9203498046128</v>
       </c>
     </row>
     <row r="17">
@@ -24737,7 +24737,7 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -25868,7 +25868,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>883331.9923972721</v>
+        <v>883331.9923972724</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>883331.9923972724</v>
+        <v>883331.9923972721</v>
       </c>
     </row>
     <row r="7">
@@ -26311,40 +26311,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>326240.2257100273</v>
+        <v>326240.2257100275</v>
       </c>
       <c r="C2" t="n">
+        <v>326240.2257100275</v>
+      </c>
+      <c r="D2" t="n">
         <v>326240.2257100274</v>
       </c>
-      <c r="D2" t="n">
-        <v>326240.2257100275</v>
-      </c>
       <c r="E2" t="n">
-        <v>283332.903221766</v>
+        <v>283332.9032217661</v>
       </c>
       <c r="F2" t="n">
-        <v>283332.903221766</v>
+        <v>283332.9032217661</v>
       </c>
       <c r="G2" t="n">
-        <v>326240.2257100275</v>
+        <v>326240.2257100274</v>
       </c>
       <c r="H2" t="n">
         <v>326240.2257100274</v>
       </c>
       <c r="I2" t="n">
-        <v>326240.2257100274</v>
+        <v>326240.2257100273</v>
       </c>
       <c r="J2" t="n">
-        <v>326240.2257100272</v>
+        <v>326240.225710027</v>
       </c>
       <c r="K2" t="n">
-        <v>326240.2257100271</v>
+        <v>326240.2257100268</v>
       </c>
       <c r="L2" t="n">
-        <v>326240.2257100277</v>
+        <v>326240.2257100276</v>
       </c>
       <c r="M2" t="n">
-        <v>326240.2257100274</v>
+        <v>326240.2257100273</v>
       </c>
       <c r="N2" t="n">
         <v>326240.2257100274</v>
@@ -26363,13 +26363,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>165529.9134506507</v>
+        <v>165529.9134506509</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>9743.038208746935</v>
+        <v>9743.038208746741</v>
       </c>
       <c r="E3" t="n">
         <v>107390.8010757635</v>
@@ -26378,7 +26378,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>59387.68618193919</v>
+        <v>59387.68618193921</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>210668.4794422432</v>
+        <v>210668.4794422433</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>65879.57388207638</v>
+        <v>65879.57388207622</v>
       </c>
       <c r="M3" t="n">
-        <v>23482.5093245656</v>
+        <v>23482.50932456565</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>43541.16890732355</v>
+        <v>43541.16890732371</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,19 +26415,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>194229.0330603502</v>
+        <v>194229.03306035</v>
       </c>
       <c r="C4" t="n">
-        <v>194229.0330603502</v>
+        <v>194229.03306035</v>
       </c>
       <c r="D4" t="n">
-        <v>185775.7593332932</v>
+        <v>185775.7593332931</v>
       </c>
       <c r="E4" t="n">
         <v>118181.7253353295</v>
       </c>
       <c r="F4" t="n">
-        <v>118181.7253353295</v>
+        <v>118181.7253353294</v>
       </c>
       <c r="G4" t="n">
         <v>175623.1205402357</v>
@@ -26439,7 +26439,7 @@
         <v>175623.1205402357</v>
       </c>
       <c r="J4" t="n">
-        <v>176368.8129357921</v>
+        <v>176368.812935792</v>
       </c>
       <c r="K4" t="n">
         <v>176368.8129357921</v>
@@ -26454,7 +26454,7 @@
         <v>175623.1205402357</v>
       </c>
       <c r="O4" t="n">
-        <v>175623.1205402356</v>
+        <v>175623.1205402357</v>
       </c>
       <c r="P4" t="n">
         <v>175623.1205402357</v>
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63659.01753266581</v>
+        <v>63659.01753266584</v>
       </c>
       <c r="C5" t="n">
-        <v>63659.0175326658</v>
+        <v>63659.01753266584</v>
       </c>
       <c r="D5" t="n">
         <v>65566.03463691141</v>
@@ -26491,13 +26491,13 @@
         <v>52802.81689264637</v>
       </c>
       <c r="J5" t="n">
-        <v>58458.01489582857</v>
+        <v>58458.01489582854</v>
       </c>
       <c r="K5" t="n">
-        <v>58458.01489582857</v>
+        <v>58458.01489582855</v>
       </c>
       <c r="L5" t="n">
-        <v>57233.20592541149</v>
+        <v>57233.2059254115</v>
       </c>
       <c r="M5" t="n">
         <v>52802.81689264638</v>
@@ -26506,7 +26506,7 @@
         <v>52802.81689264637</v>
       </c>
       <c r="O5" t="n">
-        <v>52802.81689264636</v>
+        <v>52802.81689264637</v>
       </c>
       <c r="P5" t="n">
         <v>52802.81689264637</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-97177.73833363937</v>
+        <v>-97177.73833363928</v>
       </c>
       <c r="C6" t="n">
-        <v>68352.17511701144</v>
+        <v>68352.17511701162</v>
       </c>
       <c r="D6" t="n">
-        <v>65155.393531076</v>
+        <v>65155.39353107614</v>
       </c>
       <c r="E6" t="n">
-        <v>11198.38915506343</v>
+        <v>10945.9931404267</v>
       </c>
       <c r="F6" t="n">
-        <v>118589.190230827</v>
+        <v>118336.7942161904</v>
       </c>
       <c r="G6" t="n">
-        <v>38426.60209520627</v>
+        <v>38426.60209520615</v>
       </c>
       <c r="H6" t="n">
         <v>97814.28827714536</v>
       </c>
       <c r="I6" t="n">
-        <v>97814.28827714536</v>
+        <v>97814.2882771453</v>
       </c>
       <c r="J6" t="n">
-        <v>-119255.0815638366</v>
+        <v>-119255.0815638368</v>
       </c>
       <c r="K6" t="n">
-        <v>91413.39787840647</v>
+        <v>91413.39787840616</v>
       </c>
       <c r="L6" t="n">
-        <v>26926.6293711391</v>
+        <v>26926.62937113924</v>
       </c>
       <c r="M6" t="n">
-        <v>74331.77895257973</v>
+        <v>74331.77895257958</v>
       </c>
       <c r="N6" t="n">
-        <v>97814.28827714536</v>
+        <v>97814.28827714542</v>
       </c>
       <c r="O6" t="n">
-        <v>54273.11936982189</v>
+        <v>54273.11936982174</v>
       </c>
       <c r="P6" t="n">
-        <v>97814.28827714542</v>
+        <v>97814.28827714539</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503297</v>
       </c>
       <c r="F2" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="G2" t="n">
         <v>166.1290651424569</v>
@@ -26707,10 +26707,10 @@
         <v>166.1290651424569</v>
       </c>
       <c r="J2" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="K2" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615787</v>
       </c>
       <c r="L2" t="n">
         <v>136.7759284867499</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>493.9377883662139</v>
+        <v>493.9377883662145</v>
       </c>
       <c r="C4" t="n">
-        <v>493.9377883662139</v>
+        <v>493.9377883662145</v>
       </c>
       <c r="D4" t="n">
         <v>525.3032012649903</v>
@@ -26808,25 +26808,25 @@
         <v>638.7584295260717</v>
       </c>
       <c r="I4" t="n">
+        <v>638.7584295260716</v>
+      </c>
+      <c r="J4" t="n">
+        <v>783.5790706859292</v>
+      </c>
+      <c r="K4" t="n">
+        <v>783.5790706859292</v>
+      </c>
+      <c r="L4" t="n">
+        <v>752.2136577871534</v>
+      </c>
+      <c r="M4" t="n">
+        <v>638.758429526072</v>
+      </c>
+      <c r="N4" t="n">
+        <v>638.7584295260716</v>
+      </c>
+      <c r="O4" t="n">
         <v>638.7584295260717</v>
-      </c>
-      <c r="J4" t="n">
-        <v>783.5790706859298</v>
-      </c>
-      <c r="K4" t="n">
-        <v>783.5790706859298</v>
-      </c>
-      <c r="L4" t="n">
-        <v>752.2136577871532</v>
-      </c>
-      <c r="M4" t="n">
-        <v>638.7584295260718</v>
-      </c>
-      <c r="N4" t="n">
-        <v>638.7584295260717</v>
-      </c>
-      <c r="O4" t="n">
-        <v>638.7584295260716</v>
       </c>
       <c r="P4" t="n">
         <v>638.7584295260717</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503297</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>74.23460772742399</v>
+        <v>74.23460772742402</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>54.42646113415447</v>
+        <v>54.42646113415464</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>82.34946735259547</v>
+        <v>82.34946735259527</v>
       </c>
       <c r="M2" t="n">
-        <v>29.353136655707</v>
+        <v>29.35313665570706</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>54.42646113415444</v>
+        <v>54.42646113415464</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>493.9377883662139</v>
+        <v>493.9377883662145</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>31.36541289877647</v>
+        <v>31.36541289877584</v>
       </c>
       <c r="E4" t="n">
         <v>113.4552282610814</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503297</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>74.23460772742399</v>
+        <v>74.23460772742402</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>54.42646113415447</v>
+        <v>54.42646113415464</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>493.9377883662139</v>
+        <v>493.9377883662145</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>31.36541289877647</v>
+        <v>31.36541289877584</v>
       </c>
       <c r="M4" t="n">
         <v>113.4552282610814</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>378.1144210805207</v>
       </c>
       <c r="D2" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,7 +27424,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>40.24839359988223</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S2" t="n">
         <v>185.3566856159496</v>
@@ -27433,7 +27433,7 @@
         <v>222.1153568062989</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27442,7 +27442,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>378.2098390737216</v>
+        <v>325.8444495922365</v>
       </c>
       <c r="Y2" t="n">
         <v>389.6064368699203</v>
@@ -27455,7 +27455,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>87.22292725196522</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27464,10 +27464,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27509,10 +27509,10 @@
         <v>151.2714921173871</v>
       </c>
       <c r="T3" t="n">
-        <v>186.7982527956746</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>179.3292643696147</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -27549,16 +27549,16 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G4" t="n">
-        <v>167.2305511458285</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>157.7789187685189</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>0.4884972741916158</v>
       </c>
       <c r="J4" t="n">
-        <v>59.456666199969</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27597,13 +27597,13 @@
         <v>258.1279513971616</v>
       </c>
       <c r="W4" t="n">
-        <v>119.1320058472957</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X4" t="n">
         <v>228.939939463578</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="5">
@@ -27613,13 +27613,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>390.8378626949542</v>
@@ -27634,7 +27634,7 @@
         <v>329.4930616586638</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,10 +27661,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27673,16 +27673,16 @@
         <v>252.3364829231459</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>232.3237394500294</v>
       </c>
       <c r="Y5" t="n">
-        <v>233.7071673839631</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27701,7 +27701,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -27710,10 +27710,10 @@
         <v>127.4412149769483</v>
       </c>
       <c r="H6" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,16 +27740,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>151.2714921173871</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>139.7478233095721</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>216.3098444776729</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -27758,7 +27758,7 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>19.57818374351993</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -27777,7 +27777,7 @@
         <v>167.9198098429365</v>
       </c>
       <c r="D7" t="n">
-        <v>151.5411742405149</v>
+        <v>22.95108830172589</v>
       </c>
       <c r="E7" t="n">
         <v>150.4889240962943</v>
@@ -27789,10 +27789,10 @@
         <v>167.2305511458285</v>
       </c>
       <c r="H7" t="n">
-        <v>157.7789187685189</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>142.7610139533483</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,10 +27819,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>211.5726649703493</v>
       </c>
       <c r="T7" t="n">
         <v>230.8471636524779</v>
@@ -27831,7 +27831,7 @@
         <v>284.3183371157911</v>
       </c>
       <c r="V7" t="n">
-        <v>188.5971612786203</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W7" t="n">
         <v>283.2948374677749</v>
@@ -27856,22 +27856,22 @@
         <v>378.1144210805207</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E8" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>104.0120822277494</v>
       </c>
       <c r="H8" t="n">
-        <v>83.84720300548716</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,10 +27898,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27910,13 +27910,13 @@
         <v>252.3364829231459</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W8" t="n">
         <v>358.909580840975</v>
       </c>
       <c r="X8" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>389.6064368699203</v>
@@ -27932,7 +27932,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>82.6129709724613</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -27941,7 +27941,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -27983,16 +27983,16 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>186.7982527956746</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>226.1116663261494</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>41.95262199928464</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -28011,16 +28011,16 @@
         <v>181.719814997536</v>
       </c>
       <c r="C10" t="n">
-        <v>153.6237700107223</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G10" t="n">
         <v>167.2305511458285</v>
@@ -28029,10 +28029,10 @@
         <v>157.7789187685189</v>
       </c>
       <c r="I10" t="n">
-        <v>142.7610139533483</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>38.15196793284785</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>148.0265635717656</v>
@@ -28062,13 +28062,13 @@
         <v>211.5726649703493</v>
       </c>
       <c r="T10" t="n">
-        <v>230.8471636524779</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>284.3183371157911</v>
       </c>
       <c r="V10" t="n">
-        <v>258.1279513971616</v>
+        <v>143.1494441423626</v>
       </c>
       <c r="W10" t="n">
         <v>283.2948374677749</v>
@@ -28087,76 +28087,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503297</v>
       </c>
       <c r="C11" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503297</v>
       </c>
       <c r="D11" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503297</v>
       </c>
       <c r="E11" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503297</v>
       </c>
       <c r="F11" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503297</v>
       </c>
       <c r="G11" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503297</v>
       </c>
       <c r="H11" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503297</v>
       </c>
       <c r="I11" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503297</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503297</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>91.89445741503297</v>
       </c>
       <c r="M11" t="n">
-        <v>91.89445741503295</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>91.89445741503297</v>
       </c>
       <c r="O11" t="n">
-        <v>79.49647998155586</v>
+        <v>81.65903375748314</v>
       </c>
       <c r="P11" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503297</v>
       </c>
       <c r="Q11" t="n">
-        <v>91.89445741503295</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>91.89445741503295</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S11" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503297</v>
       </c>
       <c r="T11" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503297</v>
       </c>
       <c r="U11" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503297</v>
       </c>
       <c r="V11" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503297</v>
       </c>
       <c r="W11" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503297</v>
       </c>
       <c r="X11" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503297</v>
       </c>
       <c r="Y11" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503297</v>
       </c>
     </row>
     <row r="12">
@@ -28172,7 +28172,7 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>14.5654912855037</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -28232,7 +28232,7 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>14.5654912855039</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503297</v>
       </c>
       <c r="C13" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503297</v>
       </c>
       <c r="D13" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503297</v>
       </c>
       <c r="E13" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503297</v>
       </c>
       <c r="F13" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503297</v>
       </c>
       <c r="G13" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503297</v>
       </c>
       <c r="H13" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503297</v>
       </c>
       <c r="I13" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503297</v>
       </c>
       <c r="J13" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503297</v>
       </c>
       <c r="K13" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503297</v>
       </c>
       <c r="L13" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503297</v>
       </c>
       <c r="M13" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503297</v>
       </c>
       <c r="N13" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503297</v>
       </c>
       <c r="O13" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503297</v>
       </c>
       <c r="P13" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503297</v>
       </c>
       <c r="Q13" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503297</v>
       </c>
       <c r="R13" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503297</v>
       </c>
       <c r="S13" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503297</v>
       </c>
       <c r="T13" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503297</v>
       </c>
       <c r="U13" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503297</v>
       </c>
       <c r="V13" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503297</v>
       </c>
       <c r="W13" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503297</v>
       </c>
       <c r="X13" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503297</v>
       </c>
       <c r="Y13" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503297</v>
       </c>
     </row>
     <row r="14">
@@ -28324,31 +28324,31 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="C14" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="D14" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="E14" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="F14" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="G14" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="H14" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="I14" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="J14" t="n">
-        <v>79.49647998155572</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -28357,43 +28357,43 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="N14" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="O14" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="P14" t="n">
-        <v>91.89445741503295</v>
+        <v>81.65903375748275</v>
       </c>
       <c r="Q14" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="R14" t="n">
-        <v>91.89445741503295</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S14" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="T14" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="U14" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="V14" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="W14" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="X14" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="Y14" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503292</v>
       </c>
     </row>
     <row r="15">
@@ -28415,7 +28415,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>14.5654912855033</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -28451,7 +28451,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>14.56549128550315</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="C16" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="D16" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="E16" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="F16" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="G16" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="H16" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="I16" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="J16" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="K16" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="L16" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="M16" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="N16" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="O16" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="P16" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="Q16" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="R16" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="S16" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="T16" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="U16" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="V16" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="W16" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="X16" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="Y16" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503292</v>
       </c>
     </row>
     <row r="17">
@@ -28588,7 +28588,7 @@
         <v>166.1290651424569</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -28603,13 +28603,13 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>166.1290651424569</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>40.5815716293491</v>
+        <v>116.9787331327008</v>
       </c>
       <c r="R17" t="n">
-        <v>166.1290651424569</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S17" t="n">
         <v>166.1290651424569</v>
@@ -28640,7 +28640,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>14.56549128550375</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -28655,7 +28655,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>14.56549128550373</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -28725,13 +28725,13 @@
         <v>166.1290651424569</v>
       </c>
       <c r="D19" t="n">
-        <v>166.1290651424569</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E19" t="n">
-        <v>166.1290651424569</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F19" t="n">
-        <v>166.1290651424569</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G19" t="n">
         <v>166.1290651424569</v>
@@ -28740,7 +28740,7 @@
         <v>157.7789187685189</v>
       </c>
       <c r="I19" t="n">
-        <v>144.0453821172203</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J19" t="n">
         <v>59.456666199969</v>
@@ -28764,7 +28764,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>38.15196793284785</v>
+        <v>84.83758476280077</v>
       </c>
       <c r="R19" t="n">
         <v>148.0265635717656</v>
@@ -28822,31 +28822,31 @@
         <v>166.1290651424569</v>
       </c>
       <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
         <v>166.1290651424569</v>
       </c>
-      <c r="K20" t="n">
-        <v>116.9787331327009</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
+      <c r="P20" t="n">
         <v>166.1290651424569</v>
       </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>40.58157162934955</v>
       </c>
       <c r="R20" t="n">
-        <v>89.73190363910518</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="S20" t="n">
         <v>166.1290651424569</v>
@@ -28925,13 +28925,13 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>14.5654912855036</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>14.56549128550398</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -28962,13 +28962,13 @@
         <v>166.1290651424569</v>
       </c>
       <c r="D22" t="n">
-        <v>164.9510727818002</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E22" t="n">
         <v>150.4889240962943</v>
       </c>
       <c r="F22" t="n">
-        <v>166.1290651424569</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G22" t="n">
         <v>166.1290651424569</v>
@@ -28983,7 +28983,7 @@
         <v>59.456666199969</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>46.68561682995296</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -29004,7 +29004,7 @@
         <v>38.15196793284785</v>
       </c>
       <c r="R22" t="n">
-        <v>166.1290651424569</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S22" t="n">
         <v>166.1290651424569</v>
@@ -29059,23 +29059,23 @@
         <v>166.1290651424569</v>
       </c>
       <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
         <v>166.1290651424569</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>116.9787331327003</v>
+      </c>
+      <c r="O23" t="n">
         <v>166.1290651424569</v>
       </c>
-      <c r="L23" t="n">
-        <v>40.58157162934975</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
       <c r="P23" t="n">
         <v>0</v>
       </c>
@@ -29083,7 +29083,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>166.1290651424569</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S23" t="n">
         <v>166.1290651424569</v>
@@ -29135,7 +29135,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>14.56549128550371</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -29171,7 +29171,7 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>14.56549128550421</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -29205,7 +29205,7 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F25" t="n">
-        <v>166.1290651424569</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G25" t="n">
         <v>166.1290651424569</v>
@@ -29214,10 +29214,10 @@
         <v>157.7789187685189</v>
       </c>
       <c r="I25" t="n">
-        <v>166.1290651424569</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J25" t="n">
-        <v>67.601015122837</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -29232,7 +29232,7 @@
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>46.68561682995295</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="C26" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="D26" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="E26" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="F26" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="G26" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="H26" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="J26" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="K26" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="L26" t="n">
-        <v>83.11144176676299</v>
+        <v>83.1114417667585</v>
       </c>
       <c r="M26" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="N26" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="O26" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="P26" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="Q26" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="R26" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="S26" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="T26" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="U26" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="V26" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="W26" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="X26" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="Y26" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615786</v>
       </c>
     </row>
     <row r="27">
@@ -29366,7 +29366,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>14.56549128550333</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -29399,7 +29399,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>14.56549128550315</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="C28" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="D28" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="E28" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="F28" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="G28" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="H28" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="I28" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="J28" t="n">
-        <v>128.6610688615785</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K28" t="n">
-        <v>15.49354158420759</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>46.54597631296663</v>
       </c>
       <c r="O28" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="P28" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="Q28" t="n">
-        <v>128.6610688615785</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R28" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="S28" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="T28" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="U28" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="V28" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="W28" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="X28" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="Y28" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615786</v>
       </c>
     </row>
     <row r="29">
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615787</v>
       </c>
       <c r="C29" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615787</v>
       </c>
       <c r="D29" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615787</v>
       </c>
       <c r="E29" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615787</v>
       </c>
       <c r="F29" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615787</v>
       </c>
       <c r="G29" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615787</v>
       </c>
       <c r="H29" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615787</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615787</v>
       </c>
       <c r="J29" t="n">
-        <v>83.11144176676291</v>
+        <v>128.6610688615787</v>
       </c>
       <c r="K29" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615787</v>
       </c>
       <c r="L29" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615787</v>
       </c>
       <c r="M29" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615787</v>
       </c>
       <c r="N29" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615787</v>
       </c>
       <c r="O29" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615787</v>
       </c>
       <c r="P29" t="n">
-        <v>128.6610688615785</v>
+        <v>122.0406069892321</v>
       </c>
       <c r="Q29" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615787</v>
       </c>
       <c r="R29" t="n">
-        <v>128.6610688615785</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S29" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615787</v>
       </c>
       <c r="T29" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615787</v>
       </c>
       <c r="U29" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615787</v>
       </c>
       <c r="V29" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615787</v>
       </c>
       <c r="W29" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615787</v>
       </c>
       <c r="X29" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615787</v>
       </c>
       <c r="Y29" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615787</v>
       </c>
     </row>
     <row r="30">
@@ -29636,7 +29636,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>14.56549128550315</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -29645,7 +29645,7 @@
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>14.5654912855033</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615787</v>
       </c>
       <c r="C31" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615787</v>
       </c>
       <c r="D31" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615787</v>
       </c>
       <c r="E31" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615787</v>
       </c>
       <c r="F31" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615787</v>
       </c>
       <c r="G31" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615787</v>
       </c>
       <c r="H31" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615787</v>
       </c>
       <c r="I31" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615787</v>
       </c>
       <c r="J31" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615787</v>
       </c>
       <c r="K31" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615787</v>
       </c>
       <c r="L31" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615787</v>
       </c>
       <c r="M31" t="n">
-        <v>128.6610688615785</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>15.49354158420765</v>
+        <v>128.6610688615787</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>15.49354158420361</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615787</v>
       </c>
       <c r="R31" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615787</v>
       </c>
       <c r="S31" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615787</v>
       </c>
       <c r="T31" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615787</v>
       </c>
       <c r="U31" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615787</v>
       </c>
       <c r="V31" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615787</v>
       </c>
       <c r="W31" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615787</v>
       </c>
       <c r="X31" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615787</v>
       </c>
       <c r="Y31" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615787</v>
       </c>
     </row>
     <row r="32">
@@ -29770,7 +29770,7 @@
         <v>136.7759284867499</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>136.7759284867499</v>
       </c>
       <c r="K32" t="n">
         <v>136.7759284867499</v>
@@ -29779,7 +29779,7 @@
         <v>136.7759284867499</v>
       </c>
       <c r="M32" t="n">
-        <v>136.7759284867499</v>
+        <v>77.81815591473151</v>
       </c>
       <c r="N32" t="n">
         <v>136.7759284867499</v>
@@ -29791,10 +29791,10 @@
         <v>136.7759284867499</v>
       </c>
       <c r="Q32" t="n">
-        <v>30.77413106708596</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>136.7759284867499</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S32" t="n">
         <v>136.7759284867499</v>
@@ -29873,10 +29873,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>14.56549128550315</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>14.56549128550353</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
@@ -29928,28 +29928,28 @@
         <v>136.7759284867499</v>
       </c>
       <c r="J34" t="n">
+        <v>59.456666199969</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>56.54044790115761</v>
+      </c>
+      <c r="O34" t="n">
         <v>136.7759284867499</v>
       </c>
-      <c r="K34" t="n">
+      <c r="P34" t="n">
         <v>136.7759284867499</v>
       </c>
-      <c r="L34" t="n">
+      <c r="Q34" t="n">
         <v>136.7759284867499</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="n">
-        <v>77.84514616827785</v>
-      </c>
-      <c r="O34" t="n">
-        <v>0</v>
-      </c>
-      <c r="P34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>38.15196793284785</v>
       </c>
       <c r="R34" t="n">
         <v>136.7759284867499</v>
@@ -30007,28 +30007,28 @@
         <v>166.1290651424569</v>
       </c>
       <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>40.58157162935038</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
         <v>166.1290651424569</v>
       </c>
-      <c r="K35" t="n">
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
         <v>166.1290651424569</v>
-      </c>
-      <c r="L35" t="n">
-        <v>40.58157162934975</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>166.1290651424569</v>
@@ -30068,7 +30068,7 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>14.56549128550326</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -30110,7 +30110,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>14.56549128550315</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -30177,7 +30177,7 @@
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>46.68561682995299</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
@@ -30186,10 +30186,10 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>66.73508319210941</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R37" t="n">
-        <v>166.1290651424569</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S37" t="n">
         <v>166.1290651424569</v>
@@ -30250,25 +30250,25 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>116.9787331327012</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="O38" t="n">
-        <v>40.58157162934941</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>166.1290651424569</v>
       </c>
       <c r="Q38" t="n">
-        <v>166.1290651424569</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>166.1290651424569</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S38" t="n">
         <v>166.1290651424569</v>
@@ -30314,7 +30314,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>14.56549128550326</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -30347,7 +30347,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>14.56549128550315</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -30384,19 +30384,19 @@
         <v>166.1290651424569</v>
       </c>
       <c r="D40" t="n">
-        <v>159.0632869323909</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E40" t="n">
-        <v>166.1290651424569</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F40" t="n">
-        <v>166.1290651424569</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G40" t="n">
         <v>166.1290651424569</v>
       </c>
       <c r="H40" t="n">
-        <v>166.1290651424569</v>
+        <v>157.7789187685189</v>
       </c>
       <c r="I40" t="n">
         <v>142.7610139533483</v>
@@ -30420,7 +30420,7 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>46.68561682995293</v>
       </c>
       <c r="Q40" t="n">
         <v>38.15196793284785</v>
@@ -30481,31 +30481,31 @@
         <v>166.1290651424569</v>
       </c>
       <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
         <v>166.1290651424569</v>
       </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
       <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>116.9787331327009</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
         <v>166.1290651424569</v>
       </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>40.58157162934918</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>0</v>
-      </c>
       <c r="R41" t="n">
-        <v>166.1290651424569</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S41" t="n">
         <v>166.1290651424569</v>
@@ -30551,7 +30551,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>14.56549128550328</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -30584,7 +30584,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>14.56549128550315</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -30639,7 +30639,7 @@
         <v>142.7610139533483</v>
       </c>
       <c r="J43" t="n">
-        <v>88.03978145923097</v>
+        <v>106.142283029922</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -30663,7 +30663,7 @@
         <v>38.15196793284785</v>
       </c>
       <c r="R43" t="n">
-        <v>166.1290651424569</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S43" t="n">
         <v>166.1290651424569</v>
@@ -30718,31 +30718,31 @@
         <v>166.1290651424569</v>
       </c>
       <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
         <v>166.1290651424569</v>
       </c>
-      <c r="K44" t="n">
+      <c r="N44" t="n">
+        <v>116.9787331327012</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="n">
         <v>166.1290651424569</v>
       </c>
-      <c r="L44" t="n">
-        <v>0</v>
-      </c>
-      <c r="M44" t="n">
-        <v>40.58157162934924</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O44" t="n">
-        <v>0</v>
-      </c>
-      <c r="P44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>0</v>
-      </c>
       <c r="R44" t="n">
-        <v>166.1290651424569</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S44" t="n">
         <v>166.1290651424569</v>
@@ -30821,7 +30821,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>14.5654912855036</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -30833,7 +30833,7 @@
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>14.56549128550378</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
@@ -30858,7 +30858,7 @@
         <v>166.1290651424569</v>
       </c>
       <c r="D46" t="n">
-        <v>151.5411742405149</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="E46" t="n">
         <v>150.4889240962943</v>
@@ -30873,10 +30873,10 @@
         <v>157.7789187685189</v>
       </c>
       <c r="I46" t="n">
-        <v>166.1290651424569</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J46" t="n">
-        <v>82.77423184081364</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -30894,7 +30894,7 @@
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>32.09772592801089</v>
       </c>
       <c r="Q46" t="n">
         <v>38.15196793284785</v>
@@ -34699,7 +34699,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>191.0974724791763</v>
+        <v>242.5660323684674</v>
       </c>
       <c r="L2" t="n">
         <v>351.3993667524709</v>
@@ -34714,7 +34714,7 @@
         <v>308.0854388614484</v>
       </c>
       <c r="P2" t="n">
-        <v>230.4615115717709</v>
+        <v>178.9929516824822</v>
       </c>
       <c r="Q2" t="n">
         <v>95.38611483488586</v>
@@ -34787,7 +34787,7 @@
         <v>489.93268031336</v>
       </c>
       <c r="N3" t="n">
-        <v>235.670133201792</v>
+        <v>235.6701332017941</v>
       </c>
       <c r="O3" t="n">
         <v>396.1615664486372</v>
@@ -34933,7 +34933,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>72.72580229576329</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>242.5660323684674</v>
@@ -34948,10 +34948,10 @@
         <v>382.1528875633492</v>
       </c>
       <c r="O5" t="n">
-        <v>308.0854388614484</v>
+        <v>256.6168789721596</v>
       </c>
       <c r="P5" t="n">
-        <v>106.2671493867163</v>
+        <v>230.4615115717709</v>
       </c>
       <c r="Q5" t="n">
         <v>95.38611483488586</v>
@@ -35021,16 +35021,16 @@
         <v>369.5170153233491</v>
       </c>
       <c r="M6" t="n">
-        <v>432.9314002896015</v>
+        <v>244.1410051311644</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>493.9377883662145</v>
       </c>
       <c r="O6" t="n">
         <v>396.1615664486372</v>
       </c>
       <c r="P6" t="n">
-        <v>305.147393207775</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>159.3652826117113</v>
@@ -35249,16 +35249,16 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>60.86277427586479</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>231.8086389496855</v>
       </c>
       <c r="L9" t="n">
-        <v>369.5170153233491</v>
+        <v>286.2903193893733</v>
       </c>
       <c r="M9" t="n">
-        <v>200.061099507456</v>
+        <v>489.93268031336</v>
       </c>
       <c r="N9" t="n">
         <v>516.4299455789112</v>
@@ -35267,10 +35267,10 @@
         <v>396.1615664486372</v>
       </c>
       <c r="P9" t="n">
-        <v>305.147393207775</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>159.3652826117113</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35413,25 +35413,25 @@
         <v>334.4604897835004</v>
       </c>
       <c r="L11" t="n">
-        <v>351.3993667524709</v>
+        <v>443.2938241675039</v>
       </c>
       <c r="M11" t="n">
-        <v>489.1057364585561</v>
+        <v>397.2112790435232</v>
       </c>
       <c r="N11" t="n">
-        <v>382.1528875633492</v>
+        <v>474.0473449783822</v>
       </c>
       <c r="O11" t="n">
-        <v>387.5819188430043</v>
+        <v>389.7444726189316</v>
       </c>
       <c r="P11" t="n">
         <v>322.3559689868039</v>
       </c>
       <c r="Q11" t="n">
-        <v>187.2805722499188</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R11" t="n">
-        <v>2.162553775927762</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>60.86277427586489</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K12" t="n">
         <v>231.8086389496855</v>
@@ -35507,7 +35507,7 @@
         <v>305.147393207775</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.3652826117113</v>
+        <v>159.3652826117107</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>32.43779121506395</v>
+        <v>32.43779121506397</v>
       </c>
       <c r="K13" t="n">
-        <v>125.8380813995212</v>
+        <v>125.8380813995213</v>
       </c>
       <c r="L13" t="n">
         <v>193.5177699405476</v>
@@ -35583,10 +35583,10 @@
         <v>191.3526861985579</v>
       </c>
       <c r="P13" t="n">
-        <v>155.4989864333539</v>
+        <v>155.498986433354</v>
       </c>
       <c r="Q13" t="n">
-        <v>53.74248948218509</v>
+        <v>53.74248948218512</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,7 +35644,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>152.222282277319</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K14" t="n">
         <v>242.5660323684674</v>
@@ -35653,22 +35653,22 @@
         <v>351.3993667524709</v>
       </c>
       <c r="M14" t="n">
-        <v>397.2112790435232</v>
+        <v>489.1057364585561</v>
       </c>
       <c r="N14" t="n">
         <v>474.0473449783822</v>
       </c>
       <c r="O14" t="n">
-        <v>399.9798962764814</v>
+        <v>399.9798962764813</v>
       </c>
       <c r="P14" t="n">
-        <v>322.3559689868039</v>
+        <v>312.1205453292537</v>
       </c>
       <c r="Q14" t="n">
         <v>187.2805722499188</v>
       </c>
       <c r="R14" t="n">
-        <v>2.162553775927762</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>32.43779121506395</v>
+        <v>32.43779121506392</v>
       </c>
       <c r="K16" t="n">
         <v>125.8380813995212</v>
@@ -35811,19 +35811,19 @@
         <v>193.5177699405476</v>
       </c>
       <c r="M16" t="n">
-        <v>211.0798171398832</v>
+        <v>211.0798171398831</v>
       </c>
       <c r="N16" t="n">
         <v>211.5129844348313</v>
       </c>
       <c r="O16" t="n">
-        <v>191.3526861985579</v>
+        <v>191.3526861985578</v>
       </c>
       <c r="P16" t="n">
         <v>155.4989864333539</v>
       </c>
       <c r="Q16" t="n">
-        <v>53.74248948218509</v>
+        <v>53.74248948218506</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,7 +35884,7 @@
         <v>238.8548674382202</v>
       </c>
       <c r="K17" t="n">
-        <v>242.5660323684674</v>
+        <v>408.6950975109244</v>
       </c>
       <c r="L17" t="n">
         <v>351.3993667524709</v>
@@ -35899,13 +35899,13 @@
         <v>308.0854388614484</v>
       </c>
       <c r="P17" t="n">
-        <v>396.5905767142278</v>
+        <v>230.4615115717709</v>
       </c>
       <c r="Q17" t="n">
-        <v>135.967686464235</v>
+        <v>212.3648479675866</v>
       </c>
       <c r="R17" t="n">
-        <v>76.39716150335175</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>60.86277427586489</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K18" t="n">
         <v>231.8086389496855</v>
@@ -35981,7 +35981,7 @@
         <v>305.147393207775</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.3652826117113</v>
+        <v>159.3652826117107</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36021,13 +36021,13 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>14.58789090194205</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>15.6401410461626</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>15.17321671797629</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -36036,7 +36036,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>1.284368163872024</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -36060,7 +36060,7 @@
         <v>63.604529018321</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>46.68561682995292</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>238.8548674382202</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K20" t="n">
-        <v>359.5447655011683</v>
+        <v>242.5660323684674</v>
       </c>
       <c r="L20" t="n">
         <v>351.3993667524709</v>
       </c>
       <c r="M20" t="n">
-        <v>563.3403441859801</v>
+        <v>397.2112790435232</v>
       </c>
       <c r="N20" t="n">
         <v>382.1528875633492</v>
       </c>
       <c r="O20" t="n">
-        <v>308.0854388614484</v>
+        <v>474.2145040039054</v>
       </c>
       <c r="P20" t="n">
-        <v>230.4615115717709</v>
+        <v>396.5905767142278</v>
       </c>
       <c r="Q20" t="n">
-        <v>95.38611483488586</v>
+        <v>135.9676864642354</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>76.39716150335175</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>60.86277427586489</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K21" t="n">
         <v>231.8086389496855</v>
@@ -36218,7 +36218,7 @@
         <v>305.147393207775</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.3652826117113</v>
+        <v>159.3652826117107</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36258,13 +36258,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>13.40989854128532</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>15.17321671797629</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -36279,7 +36279,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>33.9436239844883</v>
+        <v>80.62924081444126</v>
       </c>
       <c r="L22" t="n">
         <v>101.6233125255146</v>
@@ -36300,7 +36300,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>18.10250157069137</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36355,22 +36355,22 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>238.8548674382202</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K23" t="n">
-        <v>408.6950975109244</v>
+        <v>242.5660323684674</v>
       </c>
       <c r="L23" t="n">
-        <v>391.9809383818207</v>
+        <v>517.5284318949278</v>
       </c>
       <c r="M23" t="n">
         <v>397.2112790435232</v>
       </c>
       <c r="N23" t="n">
-        <v>382.1528875633492</v>
+        <v>499.1316206960495</v>
       </c>
       <c r="O23" t="n">
-        <v>308.0854388614484</v>
+        <v>474.2145040039054</v>
       </c>
       <c r="P23" t="n">
         <v>230.4615115717709</v>
@@ -36379,7 +36379,7 @@
         <v>95.38611483488586</v>
       </c>
       <c r="R23" t="n">
-        <v>76.39716150335175</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>60.86277427586489</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K24" t="n">
         <v>231.8086389496855</v>
@@ -36452,7 +36452,7 @@
         <v>396.1615664486372</v>
       </c>
       <c r="P24" t="n">
-        <v>305.147393207775</v>
+        <v>305.1473932077741</v>
       </c>
       <c r="Q24" t="n">
         <v>159.3652826117113</v>
@@ -36501,7 +36501,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>15.17321671797629</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -36510,10 +36510,10 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>23.36805118910868</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>8.144348922867996</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>33.9436239844883</v>
@@ -36528,7 +36528,7 @@
         <v>119.6185270197983</v>
       </c>
       <c r="O25" t="n">
-        <v>99.45822878352493</v>
+        <v>146.1438456134779</v>
       </c>
       <c r="P25" t="n">
         <v>63.604529018321</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>201.3868711573417</v>
+        <v>201.3868711573419</v>
       </c>
       <c r="K26" t="n">
-        <v>371.2271012300459</v>
+        <v>371.2271012300461</v>
       </c>
       <c r="L26" t="n">
-        <v>434.5108085192339</v>
+        <v>434.5108085192294</v>
       </c>
       <c r="M26" t="n">
-        <v>525.8723479051016</v>
+        <v>525.8723479051018</v>
       </c>
       <c r="N26" t="n">
-        <v>510.8139564249277</v>
+        <v>510.8139564249278</v>
       </c>
       <c r="O26" t="n">
-        <v>436.7465077230269</v>
+        <v>436.746507723027</v>
       </c>
       <c r="P26" t="n">
-        <v>359.1225804333494</v>
+        <v>359.1225804333495</v>
       </c>
       <c r="Q26" t="n">
-        <v>224.0471836964643</v>
+        <v>224.0471836964645</v>
       </c>
       <c r="R26" t="n">
-        <v>38.92916522247327</v>
+        <v>38.92916522247342</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>69.20440266160946</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>49.43716556869589</v>
+        <v>33.9436239844883</v>
       </c>
       <c r="L28" t="n">
-        <v>230.2843813870931</v>
+        <v>230.2843813870932</v>
       </c>
       <c r="M28" t="n">
-        <v>119.1853597248502</v>
+        <v>247.8464285864288</v>
       </c>
       <c r="N28" t="n">
-        <v>119.6185270197983</v>
+        <v>166.164503332765</v>
       </c>
       <c r="O28" t="n">
-        <v>228.1192976451034</v>
+        <v>228.1192976451035</v>
       </c>
       <c r="P28" t="n">
-        <v>192.2655978798995</v>
+        <v>192.2655978798996</v>
       </c>
       <c r="Q28" t="n">
-        <v>90.5091009287306</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>155.8372440625262</v>
+        <v>201.3868711573419</v>
       </c>
       <c r="K29" t="n">
-        <v>371.2271012300459</v>
+        <v>371.2271012300461</v>
       </c>
       <c r="L29" t="n">
-        <v>480.0604356140494</v>
+        <v>480.0604356140496</v>
       </c>
       <c r="M29" t="n">
-        <v>525.8723479051016</v>
+        <v>525.8723479051018</v>
       </c>
       <c r="N29" t="n">
-        <v>510.8139564249277</v>
+        <v>510.8139564249279</v>
       </c>
       <c r="O29" t="n">
-        <v>436.7465077230269</v>
+        <v>436.7465077230271</v>
       </c>
       <c r="P29" t="n">
-        <v>359.1225804333494</v>
+        <v>352.502118561003</v>
       </c>
       <c r="Q29" t="n">
-        <v>224.0471836964643</v>
+        <v>224.0471836964645</v>
       </c>
       <c r="R29" t="n">
-        <v>38.92916522247327</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>69.20440266160946</v>
+        <v>69.20440266160966</v>
       </c>
       <c r="K31" t="n">
-        <v>162.6046928460668</v>
+        <v>162.6046928460669</v>
       </c>
       <c r="L31" t="n">
-        <v>230.2843813870931</v>
+        <v>230.2843813870933</v>
       </c>
       <c r="M31" t="n">
-        <v>247.8464285864287</v>
+        <v>119.1853597248502</v>
       </c>
       <c r="N31" t="n">
-        <v>135.112068604006</v>
+        <v>248.279595881377</v>
       </c>
       <c r="O31" t="n">
-        <v>99.45822878352493</v>
+        <v>114.9517703677285</v>
       </c>
       <c r="P31" t="n">
         <v>63.604529018321</v>
       </c>
       <c r="Q31" t="n">
-        <v>90.5091009287306</v>
+        <v>90.5091009287308</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>72.72580229576329</v>
+        <v>209.5017307825132</v>
       </c>
       <c r="K32" t="n">
-        <v>379.3419608552174</v>
+        <v>379.3419608552173</v>
       </c>
       <c r="L32" t="n">
-        <v>488.1752952392209</v>
+        <v>488.1752952392208</v>
       </c>
       <c r="M32" t="n">
-        <v>533.9872075302731</v>
+        <v>475.0294349582547</v>
       </c>
       <c r="N32" t="n">
         <v>518.9288160500992</v>
       </c>
       <c r="O32" t="n">
-        <v>444.8613673481984</v>
+        <v>444.8613673481983</v>
       </c>
       <c r="P32" t="n">
-        <v>367.2374400585209</v>
+        <v>367.2374400585208</v>
       </c>
       <c r="Q32" t="n">
-        <v>126.1602459019718</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R32" t="n">
-        <v>47.04402484764475</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>77.31926228678094</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>170.7195524712382</v>
+        <v>33.9436239844883</v>
       </c>
       <c r="L34" t="n">
-        <v>238.3992410122646</v>
+        <v>101.6233125255146</v>
       </c>
       <c r="M34" t="n">
         <v>119.1853597248502</v>
       </c>
       <c r="N34" t="n">
-        <v>197.4636731880762</v>
+        <v>176.158974920956</v>
       </c>
       <c r="O34" t="n">
-        <v>99.45822878352493</v>
+        <v>236.2341572702748</v>
       </c>
       <c r="P34" t="n">
-        <v>63.604529018321</v>
+        <v>200.3804575050709</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>98.62396055390202</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,28 +37303,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>238.8548674382202</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K35" t="n">
-        <v>408.6950975109244</v>
+        <v>242.5660323684674</v>
       </c>
       <c r="L35" t="n">
-        <v>391.9809383818207</v>
+        <v>351.3993667524709</v>
       </c>
       <c r="M35" t="n">
-        <v>397.2112790435232</v>
+        <v>437.7928506728736</v>
       </c>
       <c r="N35" t="n">
         <v>382.1528875633492</v>
       </c>
       <c r="O35" t="n">
-        <v>308.0854388614484</v>
+        <v>474.2145040039054</v>
       </c>
       <c r="P35" t="n">
         <v>230.4615115717709</v>
       </c>
       <c r="Q35" t="n">
-        <v>95.38611483488586</v>
+        <v>261.5151799773428</v>
       </c>
       <c r="R35" t="n">
         <v>76.39716150335175</v>
@@ -37473,7 +37473,7 @@
         <v>119.1853597248502</v>
       </c>
       <c r="N37" t="n">
-        <v>119.6185270197983</v>
+        <v>166.3041438497513</v>
       </c>
       <c r="O37" t="n">
         <v>99.45822878352493</v>
@@ -37482,10 +37482,10 @@
         <v>63.604529018321</v>
       </c>
       <c r="Q37" t="n">
-        <v>28.58311525926155</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>18.10250157069137</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37546,25 +37546,25 @@
         <v>242.5660323684674</v>
       </c>
       <c r="L38" t="n">
-        <v>351.3993667524709</v>
+        <v>468.3780998851721</v>
       </c>
       <c r="M38" t="n">
         <v>397.2112790435232</v>
       </c>
       <c r="N38" t="n">
-        <v>382.1528875633492</v>
+        <v>548.2819527058061</v>
       </c>
       <c r="O38" t="n">
-        <v>348.6670104907978</v>
+        <v>308.0854388614484</v>
       </c>
       <c r="P38" t="n">
         <v>396.5905767142278</v>
       </c>
       <c r="Q38" t="n">
-        <v>261.5151799773428</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R38" t="n">
-        <v>76.39716150335175</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37680,19 +37680,19 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>7.522112691876044</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>15.6401410461626</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>15.17321671797629</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>8.350146373938031</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -37716,7 +37716,7 @@
         <v>99.45822878352493</v>
       </c>
       <c r="P40" t="n">
-        <v>63.604529018321</v>
+        <v>110.2901458482739</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>238.8548674382202</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K41" t="n">
-        <v>242.5660323684674</v>
+        <v>408.6950975109244</v>
       </c>
       <c r="L41" t="n">
-        <v>517.5284318949278</v>
+        <v>351.3993667524709</v>
       </c>
       <c r="M41" t="n">
         <v>397.2112790435232</v>
       </c>
       <c r="N41" t="n">
-        <v>382.1528875633492</v>
+        <v>499.1316206960502</v>
       </c>
       <c r="O41" t="n">
-        <v>348.6670104907976</v>
+        <v>308.0854388614484</v>
       </c>
       <c r="P41" t="n">
         <v>230.4615115717709</v>
       </c>
       <c r="Q41" t="n">
-        <v>95.38611483488586</v>
+        <v>261.5151799773428</v>
       </c>
       <c r="R41" t="n">
-        <v>76.39716150335173</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>28.58311525926197</v>
+        <v>46.68561682995296</v>
       </c>
       <c r="K43" t="n">
         <v>33.9436239844883</v>
@@ -37959,7 +37959,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>18.10250157069135</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38014,19 +38014,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>238.8548674382202</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K44" t="n">
-        <v>408.6950975109244</v>
+        <v>242.5660323684674</v>
       </c>
       <c r="L44" t="n">
         <v>351.3993667524709</v>
       </c>
       <c r="M44" t="n">
-        <v>437.7928506728724</v>
+        <v>563.3403441859801</v>
       </c>
       <c r="N44" t="n">
-        <v>382.1528875633492</v>
+        <v>499.1316206960504</v>
       </c>
       <c r="O44" t="n">
         <v>308.0854388614484</v>
@@ -38035,10 +38035,10 @@
         <v>230.4615115717709</v>
       </c>
       <c r="Q44" t="n">
-        <v>95.38611483488586</v>
+        <v>261.5151799773428</v>
       </c>
       <c r="R44" t="n">
-        <v>76.39716150335173</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38099,7 +38099,7 @@
         <v>231.8086389496855</v>
       </c>
       <c r="L45" t="n">
-        <v>369.5170153233492</v>
+        <v>369.5170153233491</v>
       </c>
       <c r="M45" t="n">
         <v>489.93268031336</v>
@@ -38114,7 +38114,7 @@
         <v>305.147393207775</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.3652826117113</v>
+        <v>159.3652826117107</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38154,7 +38154,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>14.58789090194205</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -38169,10 +38169,10 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>23.36805118910866</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>23.31756564084465</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>33.9436239844883</v>
@@ -38190,7 +38190,7 @@
         <v>99.45822878352493</v>
       </c>
       <c r="P46" t="n">
-        <v>63.604529018321</v>
+        <v>95.70225494633189</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
